--- a/9-30-2021-Supplemental Material.xlsx
+++ b/9-30-2021-Supplemental Material.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\classes\cs475\Fall16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdtv1\Documents\GitHub\mnist-net\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BFFAB6-9F93-43B1-80A5-81210DFFEC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21885" windowHeight="9465"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -113,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -660,6 +670,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,24 +712,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,7 +730,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1043,6 +1053,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CB1-4837-81BE-1FC83A6AF657}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1220,6 +1235,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8CB1-4837-81BE-1FC83A6AF657}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1401,6 +1421,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8CB1-4837-81BE-1FC83A6AF657}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1555,7 +1580,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1868,6 +1893,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E81-44DA-84E3-95B0F77C1786}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2045,6 +2075,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E81-44DA-84E3-95B0F77C1786}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2226,6 +2261,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0E81-44DA-84E3-95B0F77C1786}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2380,7 +2420,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2693,6 +2733,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42B6-4DA0-9614-B74E599487AF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2870,6 +2915,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42B6-4DA0-9614-B74E599487AF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3051,6 +3101,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-42B6-4DA0-9614-B74E599487AF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3205,7 +3260,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3518,6 +3573,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-799A-4D90-BFC7-8E828C198D12}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3695,6 +3755,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-799A-4D90-BFC7-8E828C198D12}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3876,6 +3941,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-799A-4D90-BFC7-8E828C198D12}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4030,7 +4100,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4343,6 +4413,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-19C2-4D3D-B320-E9EF93B32267}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4520,6 +4595,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-19C2-4D3D-B320-E9EF93B32267}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4701,6 +4781,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-19C2-4D3D-B320-E9EF93B32267}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4855,7 +4940,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5168,6 +5253,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A24-45F6-AD6E-7BD5DD8694F1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5345,6 +5435,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4A24-45F6-AD6E-7BD5DD8694F1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5526,6 +5621,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4A24-45F6-AD6E-7BD5DD8694F1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5680,7 +5780,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6003,6 +6103,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9DD-4CEB-A14F-D96CA21CCAE7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6180,6 +6285,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E9DD-4CEB-A14F-D96CA21CCAE7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6361,6 +6471,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E9DD-4CEB-A14F-D96CA21CCAE7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6515,7 +6630,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6828,6 +6943,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D08-45B3-B4AB-36E2496FE3AB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7005,6 +7125,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D08-45B3-B4AB-36E2496FE3AB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7186,6 +7311,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3D08-45B3-B4AB-36E2496FE3AB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7340,7 +7470,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7653,6 +7783,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD91-4486-9CF8-56AC502AAEC1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -7830,6 +7965,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD91-4486-9CF8-56AC502AAEC1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8011,6 +8151,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CD91-4486-9CF8-56AC502AAEC1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8165,7 +8310,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8478,6 +8623,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBB0-4116-B3C3-49C01F46BDCD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8655,6 +8805,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBB0-4116-B3C3-49C01F46BDCD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -8836,6 +8991,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBB0-4116-B3C3-49C01F46BDCD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8990,7 +9150,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9303,6 +9463,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0B8-4107-AD56-41C2711DDDFA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9480,6 +9645,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B0B8-4107-AD56-41C2711DDDFA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -9661,6 +9831,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B0B8-4107-AD56-41C2711DDDFA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9815,7 +9990,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10128,6 +10303,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7622-4EA1-9710-29782FB29A83}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -10305,6 +10485,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7622-4EA1-9710-29782FB29A83}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -10486,6 +10671,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7622-4EA1-9710-29782FB29A83}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10640,7 +10830,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10953,6 +11143,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C6D-457F-A325-4D6822AE17BB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -11130,6 +11325,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C6D-457F-A325-4D6822AE17BB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -11311,6 +11511,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C6D-457F-A325-4D6822AE17BB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -18267,7 +18472,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18297,7 +18508,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18327,7 +18544,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18357,7 +18580,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18387,7 +18616,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18417,7 +18652,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18447,7 +18688,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18477,7 +18724,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18507,7 +18760,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18537,7 +18796,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18567,7 +18832,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18597,7 +18868,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18627,7 +18904,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18907,52 +19190,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:GW89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
-    <col min="19" max="19" width="9.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" customWidth="1"/>
+    <col min="19" max="19" width="9.88671875" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" customWidth="1"/>
     <col min="29" max="29" width="10" customWidth="1"/>
-    <col min="30" max="30" width="10.28515625" customWidth="1"/>
-    <col min="34" max="34" width="9.7109375" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" customWidth="1"/>
+    <col min="34" max="34" width="9.6640625" customWidth="1"/>
     <col min="35" max="35" width="10" customWidth="1"/>
-    <col min="39" max="39" width="9.7109375" customWidth="1"/>
-    <col min="40" max="40" width="10.42578125" customWidth="1"/>
-    <col min="44" max="44" width="9.42578125" customWidth="1"/>
+    <col min="39" max="39" width="9.6640625" customWidth="1"/>
+    <col min="40" max="40" width="10.44140625" customWidth="1"/>
+    <col min="44" max="44" width="9.44140625" customWidth="1"/>
     <col min="45" max="45" width="10" customWidth="1"/>
-    <col min="49" max="49" width="9.42578125" customWidth="1"/>
+    <col min="49" max="49" width="9.44140625" customWidth="1"/>
     <col min="50" max="50" width="10" customWidth="1"/>
-    <col min="54" max="54" width="9.7109375" customWidth="1"/>
+    <col min="54" max="54" width="9.6640625" customWidth="1"/>
     <col min="55" max="55" width="10" customWidth="1"/>
-    <col min="59" max="59" width="10.140625" customWidth="1"/>
-    <col min="60" max="60" width="10.28515625" customWidth="1"/>
+    <col min="59" max="59" width="10.109375" customWidth="1"/>
+    <col min="60" max="60" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="55" t="s">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
     </row>
-    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -18962,13 +19247,13 @@
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -18984,7 +19269,7 @@
       </c>
       <c r="G4" s="28"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -19000,7 +19285,7 @@
       </c>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -19016,7 +19301,7 @@
       </c>
       <c r="G6" s="30"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>1</v>
       </c>
@@ -19032,7 +19317,7 @@
       </c>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>1</v>
       </c>
@@ -19048,7 +19333,7 @@
       </c>
       <c r="G8" s="30"/>
     </row>
-    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8">
         <v>1</v>
       </c>
@@ -19064,7 +19349,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
@@ -19074,13 +19359,13 @@
       <c r="D10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
     </row>
-    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>-3</v>
       </c>
@@ -19096,7 +19381,7 @@
       </c>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="24"/>
       <c r="C12" s="43"/>
       <c r="D12" s="43"/>
@@ -19104,7 +19389,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
@@ -19112,7 +19397,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
@@ -19120,7 +19405,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="24"/>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -19128,7 +19413,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="24"/>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
@@ -19136,7 +19421,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="25"/>
     </row>
-    <row r="17" spans="2:205" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:205" x14ac:dyDescent="0.3">
       <c r="B17" s="24"/>
       <c r="C17" s="43"/>
       <c r="D17" s="43"/>
@@ -19144,10 +19429,10 @@
       <c r="F17" s="16"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="18" spans="2:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="17"/>
       <c r="C19" s="40" t="s">
         <v>12</v>
@@ -19517,255 +19802,255 @@
       </c>
       <c r="GW19" s="28"/>
     </row>
-    <row r="20" spans="2:205" x14ac:dyDescent="0.25">
-      <c r="B20" s="64" t="s">
+    <row r="20" spans="2:205" x14ac:dyDescent="0.3">
+      <c r="B20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="G20" s="64" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="G20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="66"/>
-      <c r="L20" s="64" t="s">
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+      <c r="L20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
-      <c r="Q20" s="64" t="s">
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="58"/>
+      <c r="Q20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="66"/>
-      <c r="V20" s="64" t="s">
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="58"/>
+      <c r="V20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="66"/>
-      <c r="AA20" s="64" t="s">
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="58"/>
+      <c r="AA20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="66"/>
-      <c r="AF20" s="64" t="s">
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="58"/>
+      <c r="AF20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="65"/>
-      <c r="AI20" s="66"/>
-      <c r="AK20" s="64" t="s">
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="58"/>
+      <c r="AK20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AL20" s="65"/>
-      <c r="AM20" s="65"/>
-      <c r="AN20" s="66"/>
-      <c r="AP20" s="64" t="s">
+      <c r="AL20" s="57"/>
+      <c r="AM20" s="57"/>
+      <c r="AN20" s="58"/>
+      <c r="AP20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="66"/>
-      <c r="AU20" s="64" t="s">
+      <c r="AQ20" s="57"/>
+      <c r="AR20" s="57"/>
+      <c r="AS20" s="58"/>
+      <c r="AU20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="AV20" s="65"/>
-      <c r="AW20" s="65"/>
-      <c r="AX20" s="66"/>
-      <c r="AZ20" s="64" t="s">
+      <c r="AV20" s="57"/>
+      <c r="AW20" s="57"/>
+      <c r="AX20" s="58"/>
+      <c r="AZ20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="BA20" s="65"/>
-      <c r="BB20" s="65"/>
-      <c r="BC20" s="66"/>
-      <c r="BE20" s="64" t="s">
+      <c r="BA20" s="57"/>
+      <c r="BB20" s="57"/>
+      <c r="BC20" s="58"/>
+      <c r="BE20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="BF20" s="65"/>
-      <c r="BG20" s="65"/>
-      <c r="BH20" s="66"/>
-      <c r="BJ20" s="64" t="s">
+      <c r="BF20" s="57"/>
+      <c r="BG20" s="57"/>
+      <c r="BH20" s="58"/>
+      <c r="BJ20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="BK20" s="65"/>
-      <c r="BL20" s="65"/>
-      <c r="BM20" s="66"/>
-      <c r="BO20" s="64" t="s">
+      <c r="BK20" s="57"/>
+      <c r="BL20" s="57"/>
+      <c r="BM20" s="58"/>
+      <c r="BO20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="BP20" s="65"/>
-      <c r="BQ20" s="65"/>
-      <c r="BR20" s="66"/>
-      <c r="BT20" s="64" t="s">
+      <c r="BP20" s="57"/>
+      <c r="BQ20" s="57"/>
+      <c r="BR20" s="58"/>
+      <c r="BT20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="BU20" s="65"/>
-      <c r="BV20" s="65"/>
-      <c r="BW20" s="66"/>
-      <c r="BY20" s="64" t="s">
+      <c r="BU20" s="57"/>
+      <c r="BV20" s="57"/>
+      <c r="BW20" s="58"/>
+      <c r="BY20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="BZ20" s="65"/>
-      <c r="CA20" s="65"/>
-      <c r="CB20" s="66"/>
-      <c r="CD20" s="64" t="s">
+      <c r="BZ20" s="57"/>
+      <c r="CA20" s="57"/>
+      <c r="CB20" s="58"/>
+      <c r="CD20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="CE20" s="65"/>
-      <c r="CF20" s="65"/>
-      <c r="CG20" s="66"/>
-      <c r="CI20" s="64" t="s">
+      <c r="CE20" s="57"/>
+      <c r="CF20" s="57"/>
+      <c r="CG20" s="58"/>
+      <c r="CI20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="CJ20" s="65"/>
-      <c r="CK20" s="65"/>
-      <c r="CL20" s="66"/>
-      <c r="CN20" s="64" t="s">
+      <c r="CJ20" s="57"/>
+      <c r="CK20" s="57"/>
+      <c r="CL20" s="58"/>
+      <c r="CN20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="CO20" s="65"/>
-      <c r="CP20" s="65"/>
-      <c r="CQ20" s="66"/>
-      <c r="CS20" s="64" t="s">
+      <c r="CO20" s="57"/>
+      <c r="CP20" s="57"/>
+      <c r="CQ20" s="58"/>
+      <c r="CS20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="CT20" s="65"/>
-      <c r="CU20" s="65"/>
-      <c r="CV20" s="66"/>
-      <c r="CX20" s="64" t="s">
+      <c r="CT20" s="57"/>
+      <c r="CU20" s="57"/>
+      <c r="CV20" s="58"/>
+      <c r="CX20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="CY20" s="65"/>
-      <c r="CZ20" s="65"/>
-      <c r="DA20" s="66"/>
-      <c r="DC20" s="64" t="s">
+      <c r="CY20" s="57"/>
+      <c r="CZ20" s="57"/>
+      <c r="DA20" s="58"/>
+      <c r="DC20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="DD20" s="65"/>
-      <c r="DE20" s="65"/>
-      <c r="DF20" s="66"/>
-      <c r="DH20" s="64" t="s">
+      <c r="DD20" s="57"/>
+      <c r="DE20" s="57"/>
+      <c r="DF20" s="58"/>
+      <c r="DH20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="DI20" s="65"/>
-      <c r="DJ20" s="65"/>
-      <c r="DK20" s="66"/>
-      <c r="DM20" s="64" t="s">
+      <c r="DI20" s="57"/>
+      <c r="DJ20" s="57"/>
+      <c r="DK20" s="58"/>
+      <c r="DM20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="DN20" s="65"/>
-      <c r="DO20" s="65"/>
-      <c r="DP20" s="66"/>
-      <c r="DR20" s="64" t="s">
+      <c r="DN20" s="57"/>
+      <c r="DO20" s="57"/>
+      <c r="DP20" s="58"/>
+      <c r="DR20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="DS20" s="65"/>
-      <c r="DT20" s="65"/>
-      <c r="DU20" s="66"/>
-      <c r="DW20" s="64" t="s">
+      <c r="DS20" s="57"/>
+      <c r="DT20" s="57"/>
+      <c r="DU20" s="58"/>
+      <c r="DW20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="DX20" s="65"/>
-      <c r="DY20" s="65"/>
-      <c r="DZ20" s="66"/>
-      <c r="EB20" s="64" t="s">
+      <c r="DX20" s="57"/>
+      <c r="DY20" s="57"/>
+      <c r="DZ20" s="58"/>
+      <c r="EB20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="EC20" s="65"/>
-      <c r="ED20" s="65"/>
-      <c r="EE20" s="66"/>
-      <c r="EG20" s="64" t="s">
+      <c r="EC20" s="57"/>
+      <c r="ED20" s="57"/>
+      <c r="EE20" s="58"/>
+      <c r="EG20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="EH20" s="65"/>
-      <c r="EI20" s="65"/>
-      <c r="EJ20" s="66"/>
-      <c r="EL20" s="64" t="s">
+      <c r="EH20" s="57"/>
+      <c r="EI20" s="57"/>
+      <c r="EJ20" s="58"/>
+      <c r="EL20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="EM20" s="65"/>
-      <c r="EN20" s="65"/>
-      <c r="EO20" s="66"/>
-      <c r="EQ20" s="64" t="s">
+      <c r="EM20" s="57"/>
+      <c r="EN20" s="57"/>
+      <c r="EO20" s="58"/>
+      <c r="EQ20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="ER20" s="65"/>
-      <c r="ES20" s="65"/>
-      <c r="ET20" s="66"/>
-      <c r="EV20" s="64" t="s">
+      <c r="ER20" s="57"/>
+      <c r="ES20" s="57"/>
+      <c r="ET20" s="58"/>
+      <c r="EV20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="EW20" s="65"/>
-      <c r="EX20" s="65"/>
-      <c r="EY20" s="66"/>
-      <c r="FA20" s="64" t="s">
+      <c r="EW20" s="57"/>
+      <c r="EX20" s="57"/>
+      <c r="EY20" s="58"/>
+      <c r="FA20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="FB20" s="65"/>
-      <c r="FC20" s="65"/>
-      <c r="FD20" s="66"/>
-      <c r="FF20" s="64" t="s">
+      <c r="FB20" s="57"/>
+      <c r="FC20" s="57"/>
+      <c r="FD20" s="58"/>
+      <c r="FF20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="FG20" s="65"/>
-      <c r="FH20" s="65"/>
-      <c r="FI20" s="66"/>
-      <c r="FK20" s="64" t="s">
+      <c r="FG20" s="57"/>
+      <c r="FH20" s="57"/>
+      <c r="FI20" s="58"/>
+      <c r="FK20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="FL20" s="65"/>
-      <c r="FM20" s="65"/>
-      <c r="FN20" s="66"/>
-      <c r="FP20" s="64" t="s">
+      <c r="FL20" s="57"/>
+      <c r="FM20" s="57"/>
+      <c r="FN20" s="58"/>
+      <c r="FP20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="FQ20" s="65"/>
-      <c r="FR20" s="65"/>
-      <c r="FS20" s="66"/>
-      <c r="FU20" s="64" t="s">
+      <c r="FQ20" s="57"/>
+      <c r="FR20" s="57"/>
+      <c r="FS20" s="58"/>
+      <c r="FU20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="FV20" s="65"/>
-      <c r="FW20" s="65"/>
-      <c r="FX20" s="66"/>
-      <c r="FZ20" s="64" t="s">
+      <c r="FV20" s="57"/>
+      <c r="FW20" s="57"/>
+      <c r="FX20" s="58"/>
+      <c r="FZ20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="GA20" s="65"/>
-      <c r="GB20" s="65"/>
-      <c r="GC20" s="66"/>
-      <c r="GE20" s="64" t="s">
+      <c r="GA20" s="57"/>
+      <c r="GB20" s="57"/>
+      <c r="GC20" s="58"/>
+      <c r="GE20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="GF20" s="65"/>
-      <c r="GG20" s="65"/>
-      <c r="GH20" s="66"/>
-      <c r="GJ20" s="64" t="s">
+      <c r="GF20" s="57"/>
+      <c r="GG20" s="57"/>
+      <c r="GH20" s="58"/>
+      <c r="GJ20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="GK20" s="65"/>
-      <c r="GL20" s="65"/>
-      <c r="GM20" s="66"/>
-      <c r="GO20" s="64" t="s">
+      <c r="GK20" s="57"/>
+      <c r="GL20" s="57"/>
+      <c r="GM20" s="58"/>
+      <c r="GO20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="GP20" s="65"/>
-      <c r="GQ20" s="65"/>
-      <c r="GR20" s="66"/>
-      <c r="GT20" s="64" t="s">
+      <c r="GP20" s="57"/>
+      <c r="GQ20" s="57"/>
+      <c r="GR20" s="58"/>
+      <c r="GT20" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="GU20" s="65"/>
-      <c r="GV20" s="65"/>
-      <c r="GW20" s="66"/>
+      <c r="GU20" s="57"/>
+      <c r="GV20" s="57"/>
+      <c r="GW20" s="58"/>
     </row>
-    <row r="21" spans="2:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="31" t="s">
         <v>25</v>
       </c>
@@ -20341,7 +20626,7 @@
         <v>-5.5555555555555571</v>
       </c>
     </row>
-    <row r="22" spans="2:205" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:205" x14ac:dyDescent="0.3">
       <c r="B22" s="36" t="s">
         <v>8</v>
       </c>
@@ -20835,7 +21120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:205" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:205" x14ac:dyDescent="0.3">
       <c r="B23" s="29">
         <f>IF((($B$11)+($C$11*C4)+($D$11*D4))&gt;=0,1,0)</f>
         <v>0</v>
@@ -21493,7 +21778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:205" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:205" x14ac:dyDescent="0.3">
       <c r="B24" s="29">
         <f t="shared" ref="B24:B28" si="162">IF((($B$11)+($C$11*C5)+($D$11*D5))&gt;=0,1,0)</f>
         <v>0</v>
@@ -22135,7 +22420,7 @@
         <v>0</v>
       </c>
       <c r="GT24" s="29">
-        <f t="shared" ref="GT23:GT28" si="163">IF(((GO$43)+($C5*GP$43)+($D5*GQ$43))&gt;=0,1,0)</f>
+        <f t="shared" ref="GT24:GT28" si="163">IF(((GO$43)+($C5*GP$43)+($D5*GQ$43))&gt;=0,1,0)</f>
         <v>0</v>
       </c>
       <c r="GU24" s="23">
@@ -22151,7 +22436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:205" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:205" x14ac:dyDescent="0.3">
       <c r="B25" s="29">
         <f t="shared" si="162"/>
         <v>0</v>
@@ -22809,7 +23094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:205" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:205" x14ac:dyDescent="0.3">
       <c r="B26" s="29">
         <f t="shared" si="162"/>
         <v>1</v>
@@ -23467,7 +23752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:205" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:205" x14ac:dyDescent="0.3">
       <c r="B27" s="29">
         <f t="shared" si="162"/>
         <v>0</v>
@@ -24125,7 +24410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="29">
         <f t="shared" si="162"/>
         <v>0</v>
@@ -24783,255 +25068,255 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="61" t="s">
+    <row r="29" spans="2:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63"/>
-      <c r="G29" s="61" t="s">
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="G29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
-      <c r="L29" s="61" t="s">
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="55"/>
+      <c r="L29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="63"/>
-      <c r="Q29" s="61" t="s">
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="55"/>
+      <c r="Q29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="63"/>
-      <c r="V29" s="61" t="s">
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="55"/>
+      <c r="V29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="63"/>
-      <c r="AA29" s="61" t="s">
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="55"/>
+      <c r="AA29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="AB29" s="62"/>
-      <c r="AC29" s="62"/>
-      <c r="AD29" s="63"/>
-      <c r="AF29" s="61" t="s">
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="55"/>
+      <c r="AF29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="AG29" s="62"/>
-      <c r="AH29" s="62"/>
-      <c r="AI29" s="63"/>
-      <c r="AK29" s="61" t="s">
+      <c r="AG29" s="54"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="55"/>
+      <c r="AK29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="AL29" s="62"/>
-      <c r="AM29" s="62"/>
-      <c r="AN29" s="63"/>
-      <c r="AP29" s="61" t="s">
+      <c r="AL29" s="54"/>
+      <c r="AM29" s="54"/>
+      <c r="AN29" s="55"/>
+      <c r="AP29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="AQ29" s="62"/>
-      <c r="AR29" s="62"/>
-      <c r="AS29" s="63"/>
-      <c r="AU29" s="61" t="s">
+      <c r="AQ29" s="54"/>
+      <c r="AR29" s="54"/>
+      <c r="AS29" s="55"/>
+      <c r="AU29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="AV29" s="62"/>
-      <c r="AW29" s="62"/>
-      <c r="AX29" s="63"/>
-      <c r="AZ29" s="61" t="s">
+      <c r="AV29" s="54"/>
+      <c r="AW29" s="54"/>
+      <c r="AX29" s="55"/>
+      <c r="AZ29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BA29" s="62"/>
-      <c r="BB29" s="62"/>
-      <c r="BC29" s="63"/>
-      <c r="BE29" s="61" t="s">
+      <c r="BA29" s="54"/>
+      <c r="BB29" s="54"/>
+      <c r="BC29" s="55"/>
+      <c r="BE29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BF29" s="62"/>
-      <c r="BG29" s="62"/>
-      <c r="BH29" s="63"/>
-      <c r="BJ29" s="61" t="s">
+      <c r="BF29" s="54"/>
+      <c r="BG29" s="54"/>
+      <c r="BH29" s="55"/>
+      <c r="BJ29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BK29" s="62"/>
-      <c r="BL29" s="62"/>
-      <c r="BM29" s="63"/>
-      <c r="BO29" s="61" t="s">
+      <c r="BK29" s="54"/>
+      <c r="BL29" s="54"/>
+      <c r="BM29" s="55"/>
+      <c r="BO29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BP29" s="62"/>
-      <c r="BQ29" s="62"/>
-      <c r="BR29" s="63"/>
-      <c r="BT29" s="61" t="s">
+      <c r="BP29" s="54"/>
+      <c r="BQ29" s="54"/>
+      <c r="BR29" s="55"/>
+      <c r="BT29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BU29" s="62"/>
-      <c r="BV29" s="62"/>
-      <c r="BW29" s="63"/>
-      <c r="BY29" s="61" t="s">
+      <c r="BU29" s="54"/>
+      <c r="BV29" s="54"/>
+      <c r="BW29" s="55"/>
+      <c r="BY29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BZ29" s="62"/>
-      <c r="CA29" s="62"/>
-      <c r="CB29" s="63"/>
-      <c r="CD29" s="61" t="s">
+      <c r="BZ29" s="54"/>
+      <c r="CA29" s="54"/>
+      <c r="CB29" s="55"/>
+      <c r="CD29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="CE29" s="62"/>
-      <c r="CF29" s="62"/>
-      <c r="CG29" s="63"/>
-      <c r="CI29" s="61" t="s">
+      <c r="CE29" s="54"/>
+      <c r="CF29" s="54"/>
+      <c r="CG29" s="55"/>
+      <c r="CI29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="CJ29" s="62"/>
-      <c r="CK29" s="62"/>
-      <c r="CL29" s="63"/>
-      <c r="CN29" s="61" t="s">
+      <c r="CJ29" s="54"/>
+      <c r="CK29" s="54"/>
+      <c r="CL29" s="55"/>
+      <c r="CN29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="CO29" s="62"/>
-      <c r="CP29" s="62"/>
-      <c r="CQ29" s="63"/>
-      <c r="CS29" s="61" t="s">
+      <c r="CO29" s="54"/>
+      <c r="CP29" s="54"/>
+      <c r="CQ29" s="55"/>
+      <c r="CS29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="CT29" s="62"/>
-      <c r="CU29" s="62"/>
-      <c r="CV29" s="63"/>
-      <c r="CX29" s="61" t="s">
+      <c r="CT29" s="54"/>
+      <c r="CU29" s="54"/>
+      <c r="CV29" s="55"/>
+      <c r="CX29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="CY29" s="62"/>
-      <c r="CZ29" s="62"/>
-      <c r="DA29" s="63"/>
-      <c r="DC29" s="61" t="s">
+      <c r="CY29" s="54"/>
+      <c r="CZ29" s="54"/>
+      <c r="DA29" s="55"/>
+      <c r="DC29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="DD29" s="62"/>
-      <c r="DE29" s="62"/>
-      <c r="DF29" s="63"/>
-      <c r="DH29" s="61" t="s">
+      <c r="DD29" s="54"/>
+      <c r="DE29" s="54"/>
+      <c r="DF29" s="55"/>
+      <c r="DH29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="DI29" s="62"/>
-      <c r="DJ29" s="62"/>
-      <c r="DK29" s="63"/>
-      <c r="DM29" s="61" t="s">
+      <c r="DI29" s="54"/>
+      <c r="DJ29" s="54"/>
+      <c r="DK29" s="55"/>
+      <c r="DM29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="DN29" s="62"/>
-      <c r="DO29" s="62"/>
-      <c r="DP29" s="63"/>
-      <c r="DR29" s="61" t="s">
+      <c r="DN29" s="54"/>
+      <c r="DO29" s="54"/>
+      <c r="DP29" s="55"/>
+      <c r="DR29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="DS29" s="62"/>
-      <c r="DT29" s="62"/>
-      <c r="DU29" s="63"/>
-      <c r="DW29" s="61" t="s">
+      <c r="DS29" s="54"/>
+      <c r="DT29" s="54"/>
+      <c r="DU29" s="55"/>
+      <c r="DW29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="DX29" s="62"/>
-      <c r="DY29" s="62"/>
-      <c r="DZ29" s="63"/>
-      <c r="EB29" s="61" t="s">
+      <c r="DX29" s="54"/>
+      <c r="DY29" s="54"/>
+      <c r="DZ29" s="55"/>
+      <c r="EB29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="EC29" s="62"/>
-      <c r="ED29" s="62"/>
-      <c r="EE29" s="63"/>
-      <c r="EG29" s="61" t="s">
+      <c r="EC29" s="54"/>
+      <c r="ED29" s="54"/>
+      <c r="EE29" s="55"/>
+      <c r="EG29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="EH29" s="62"/>
-      <c r="EI29" s="62"/>
-      <c r="EJ29" s="63"/>
-      <c r="EL29" s="61" t="s">
+      <c r="EH29" s="54"/>
+      <c r="EI29" s="54"/>
+      <c r="EJ29" s="55"/>
+      <c r="EL29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="EM29" s="62"/>
-      <c r="EN29" s="62"/>
-      <c r="EO29" s="63"/>
-      <c r="EQ29" s="61" t="s">
+      <c r="EM29" s="54"/>
+      <c r="EN29" s="54"/>
+      <c r="EO29" s="55"/>
+      <c r="EQ29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="ER29" s="62"/>
-      <c r="ES29" s="62"/>
-      <c r="ET29" s="63"/>
-      <c r="EV29" s="61" t="s">
+      <c r="ER29" s="54"/>
+      <c r="ES29" s="54"/>
+      <c r="ET29" s="55"/>
+      <c r="EV29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="EW29" s="62"/>
-      <c r="EX29" s="62"/>
-      <c r="EY29" s="63"/>
-      <c r="FA29" s="61" t="s">
+      <c r="EW29" s="54"/>
+      <c r="EX29" s="54"/>
+      <c r="EY29" s="55"/>
+      <c r="FA29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="FB29" s="62"/>
-      <c r="FC29" s="62"/>
-      <c r="FD29" s="63"/>
-      <c r="FF29" s="61" t="s">
+      <c r="FB29" s="54"/>
+      <c r="FC29" s="54"/>
+      <c r="FD29" s="55"/>
+      <c r="FF29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="FG29" s="62"/>
-      <c r="FH29" s="62"/>
-      <c r="FI29" s="63"/>
-      <c r="FK29" s="61" t="s">
+      <c r="FG29" s="54"/>
+      <c r="FH29" s="54"/>
+      <c r="FI29" s="55"/>
+      <c r="FK29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="FL29" s="62"/>
-      <c r="FM29" s="62"/>
-      <c r="FN29" s="63"/>
-      <c r="FP29" s="61" t="s">
+      <c r="FL29" s="54"/>
+      <c r="FM29" s="54"/>
+      <c r="FN29" s="55"/>
+      <c r="FP29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="FQ29" s="62"/>
-      <c r="FR29" s="62"/>
-      <c r="FS29" s="63"/>
-      <c r="FU29" s="61" t="s">
+      <c r="FQ29" s="54"/>
+      <c r="FR29" s="54"/>
+      <c r="FS29" s="55"/>
+      <c r="FU29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="FV29" s="62"/>
-      <c r="FW29" s="62"/>
-      <c r="FX29" s="63"/>
-      <c r="FZ29" s="61" t="s">
+      <c r="FV29" s="54"/>
+      <c r="FW29" s="54"/>
+      <c r="FX29" s="55"/>
+      <c r="FZ29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="GA29" s="62"/>
-      <c r="GB29" s="62"/>
-      <c r="GC29" s="63"/>
-      <c r="GE29" s="61" t="s">
+      <c r="GA29" s="54"/>
+      <c r="GB29" s="54"/>
+      <c r="GC29" s="55"/>
+      <c r="GE29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="GF29" s="62"/>
-      <c r="GG29" s="62"/>
-      <c r="GH29" s="63"/>
-      <c r="GJ29" s="61" t="s">
+      <c r="GF29" s="54"/>
+      <c r="GG29" s="54"/>
+      <c r="GH29" s="55"/>
+      <c r="GJ29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="GK29" s="62"/>
-      <c r="GL29" s="62"/>
-      <c r="GM29" s="63"/>
-      <c r="GO29" s="61" t="s">
+      <c r="GK29" s="54"/>
+      <c r="GL29" s="54"/>
+      <c r="GM29" s="55"/>
+      <c r="GO29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="GP29" s="62"/>
-      <c r="GQ29" s="62"/>
-      <c r="GR29" s="63"/>
-      <c r="GT29" s="61" t="s">
+      <c r="GP29" s="54"/>
+      <c r="GQ29" s="54"/>
+      <c r="GR29" s="55"/>
+      <c r="GT29" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="GU29" s="62"/>
-      <c r="GV29" s="62"/>
-      <c r="GW29" s="63"/>
+      <c r="GU29" s="54"/>
+      <c r="GV29" s="54"/>
+      <c r="GW29" s="55"/>
     </row>
-    <row r="30" spans="2:205" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:205" x14ac:dyDescent="0.3">
       <c r="B30" s="29" t="s">
         <v>2</v>
       </c>
@@ -25443,7 +25728,7 @@
       </c>
       <c r="GW30" s="30"/>
     </row>
-    <row r="31" spans="2:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="29">
         <f>SUM(D23:D28)</f>
         <v>1</v>
@@ -25978,255 +26263,255 @@
       </c>
       <c r="GW31" s="30"/>
     </row>
-    <row r="32" spans="2:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="61" t="s">
+    <row r="32" spans="2:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="G32" s="61" t="s">
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
+      <c r="G32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
-      <c r="L32" s="61" t="s">
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="55"/>
+      <c r="L32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="63"/>
-      <c r="Q32" s="61" t="s">
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="55"/>
+      <c r="Q32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="63"/>
-      <c r="V32" s="61" t="s">
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="55"/>
+      <c r="V32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="63"/>
-      <c r="AA32" s="61" t="s">
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="55"/>
+      <c r="AA32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AB32" s="62"/>
-      <c r="AC32" s="62"/>
-      <c r="AD32" s="63"/>
-      <c r="AF32" s="61" t="s">
+      <c r="AB32" s="54"/>
+      <c r="AC32" s="54"/>
+      <c r="AD32" s="55"/>
+      <c r="AF32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AG32" s="62"/>
-      <c r="AH32" s="62"/>
-      <c r="AI32" s="63"/>
-      <c r="AK32" s="61" t="s">
+      <c r="AG32" s="54"/>
+      <c r="AH32" s="54"/>
+      <c r="AI32" s="55"/>
+      <c r="AK32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AL32" s="62"/>
-      <c r="AM32" s="62"/>
-      <c r="AN32" s="63"/>
-      <c r="AP32" s="61" t="s">
+      <c r="AL32" s="54"/>
+      <c r="AM32" s="54"/>
+      <c r="AN32" s="55"/>
+      <c r="AP32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AQ32" s="62"/>
-      <c r="AR32" s="62"/>
-      <c r="AS32" s="63"/>
-      <c r="AU32" s="61" t="s">
+      <c r="AQ32" s="54"/>
+      <c r="AR32" s="54"/>
+      <c r="AS32" s="55"/>
+      <c r="AU32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AV32" s="62"/>
-      <c r="AW32" s="62"/>
-      <c r="AX32" s="63"/>
-      <c r="AZ32" s="61" t="s">
+      <c r="AV32" s="54"/>
+      <c r="AW32" s="54"/>
+      <c r="AX32" s="55"/>
+      <c r="AZ32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BA32" s="62"/>
-      <c r="BB32" s="62"/>
-      <c r="BC32" s="63"/>
-      <c r="BE32" s="61" t="s">
+      <c r="BA32" s="54"/>
+      <c r="BB32" s="54"/>
+      <c r="BC32" s="55"/>
+      <c r="BE32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BF32" s="62"/>
-      <c r="BG32" s="62"/>
-      <c r="BH32" s="63"/>
-      <c r="BJ32" s="61" t="s">
+      <c r="BF32" s="54"/>
+      <c r="BG32" s="54"/>
+      <c r="BH32" s="55"/>
+      <c r="BJ32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BK32" s="62"/>
-      <c r="BL32" s="62"/>
-      <c r="BM32" s="63"/>
-      <c r="BO32" s="61" t="s">
+      <c r="BK32" s="54"/>
+      <c r="BL32" s="54"/>
+      <c r="BM32" s="55"/>
+      <c r="BO32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BP32" s="62"/>
-      <c r="BQ32" s="62"/>
-      <c r="BR32" s="63"/>
-      <c r="BT32" s="61" t="s">
+      <c r="BP32" s="54"/>
+      <c r="BQ32" s="54"/>
+      <c r="BR32" s="55"/>
+      <c r="BT32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BU32" s="62"/>
-      <c r="BV32" s="62"/>
-      <c r="BW32" s="63"/>
-      <c r="BY32" s="61" t="s">
+      <c r="BU32" s="54"/>
+      <c r="BV32" s="54"/>
+      <c r="BW32" s="55"/>
+      <c r="BY32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BZ32" s="62"/>
-      <c r="CA32" s="62"/>
-      <c r="CB32" s="63"/>
-      <c r="CD32" s="61" t="s">
+      <c r="BZ32" s="54"/>
+      <c r="CA32" s="54"/>
+      <c r="CB32" s="55"/>
+      <c r="CD32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="CE32" s="62"/>
-      <c r="CF32" s="62"/>
-      <c r="CG32" s="63"/>
-      <c r="CI32" s="61" t="s">
+      <c r="CE32" s="54"/>
+      <c r="CF32" s="54"/>
+      <c r="CG32" s="55"/>
+      <c r="CI32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="CJ32" s="62"/>
-      <c r="CK32" s="62"/>
-      <c r="CL32" s="63"/>
-      <c r="CN32" s="61" t="s">
+      <c r="CJ32" s="54"/>
+      <c r="CK32" s="54"/>
+      <c r="CL32" s="55"/>
+      <c r="CN32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="CO32" s="62"/>
-      <c r="CP32" s="62"/>
-      <c r="CQ32" s="63"/>
-      <c r="CS32" s="61" t="s">
+      <c r="CO32" s="54"/>
+      <c r="CP32" s="54"/>
+      <c r="CQ32" s="55"/>
+      <c r="CS32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="CT32" s="62"/>
-      <c r="CU32" s="62"/>
-      <c r="CV32" s="63"/>
-      <c r="CX32" s="61" t="s">
+      <c r="CT32" s="54"/>
+      <c r="CU32" s="54"/>
+      <c r="CV32" s="55"/>
+      <c r="CX32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="CY32" s="62"/>
-      <c r="CZ32" s="62"/>
-      <c r="DA32" s="63"/>
-      <c r="DC32" s="61" t="s">
+      <c r="CY32" s="54"/>
+      <c r="CZ32" s="54"/>
+      <c r="DA32" s="55"/>
+      <c r="DC32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="DD32" s="62"/>
-      <c r="DE32" s="62"/>
-      <c r="DF32" s="63"/>
-      <c r="DH32" s="61" t="s">
+      <c r="DD32" s="54"/>
+      <c r="DE32" s="54"/>
+      <c r="DF32" s="55"/>
+      <c r="DH32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="DI32" s="62"/>
-      <c r="DJ32" s="62"/>
-      <c r="DK32" s="63"/>
-      <c r="DM32" s="61" t="s">
+      <c r="DI32" s="54"/>
+      <c r="DJ32" s="54"/>
+      <c r="DK32" s="55"/>
+      <c r="DM32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="DN32" s="62"/>
-      <c r="DO32" s="62"/>
-      <c r="DP32" s="63"/>
-      <c r="DR32" s="61" t="s">
+      <c r="DN32" s="54"/>
+      <c r="DO32" s="54"/>
+      <c r="DP32" s="55"/>
+      <c r="DR32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="DS32" s="62"/>
-      <c r="DT32" s="62"/>
-      <c r="DU32" s="63"/>
-      <c r="DW32" s="61" t="s">
+      <c r="DS32" s="54"/>
+      <c r="DT32" s="54"/>
+      <c r="DU32" s="55"/>
+      <c r="DW32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="DX32" s="62"/>
-      <c r="DY32" s="62"/>
-      <c r="DZ32" s="63"/>
-      <c r="EB32" s="61" t="s">
+      <c r="DX32" s="54"/>
+      <c r="DY32" s="54"/>
+      <c r="DZ32" s="55"/>
+      <c r="EB32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="EC32" s="62"/>
-      <c r="ED32" s="62"/>
-      <c r="EE32" s="63"/>
-      <c r="EG32" s="61" t="s">
+      <c r="EC32" s="54"/>
+      <c r="ED32" s="54"/>
+      <c r="EE32" s="55"/>
+      <c r="EG32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="EH32" s="62"/>
-      <c r="EI32" s="62"/>
-      <c r="EJ32" s="63"/>
-      <c r="EL32" s="61" t="s">
+      <c r="EH32" s="54"/>
+      <c r="EI32" s="54"/>
+      <c r="EJ32" s="55"/>
+      <c r="EL32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="EM32" s="62"/>
-      <c r="EN32" s="62"/>
-      <c r="EO32" s="63"/>
-      <c r="EQ32" s="61" t="s">
+      <c r="EM32" s="54"/>
+      <c r="EN32" s="54"/>
+      <c r="EO32" s="55"/>
+      <c r="EQ32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="ER32" s="62"/>
-      <c r="ES32" s="62"/>
-      <c r="ET32" s="63"/>
-      <c r="EV32" s="61" t="s">
+      <c r="ER32" s="54"/>
+      <c r="ES32" s="54"/>
+      <c r="ET32" s="55"/>
+      <c r="EV32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="EW32" s="62"/>
-      <c r="EX32" s="62"/>
-      <c r="EY32" s="63"/>
-      <c r="FA32" s="61" t="s">
+      <c r="EW32" s="54"/>
+      <c r="EX32" s="54"/>
+      <c r="EY32" s="55"/>
+      <c r="FA32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="FB32" s="62"/>
-      <c r="FC32" s="62"/>
-      <c r="FD32" s="63"/>
-      <c r="FF32" s="61" t="s">
+      <c r="FB32" s="54"/>
+      <c r="FC32" s="54"/>
+      <c r="FD32" s="55"/>
+      <c r="FF32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="FG32" s="62"/>
-      <c r="FH32" s="62"/>
-      <c r="FI32" s="63"/>
-      <c r="FK32" s="61" t="s">
+      <c r="FG32" s="54"/>
+      <c r="FH32" s="54"/>
+      <c r="FI32" s="55"/>
+      <c r="FK32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="FL32" s="62"/>
-      <c r="FM32" s="62"/>
-      <c r="FN32" s="63"/>
-      <c r="FP32" s="61" t="s">
+      <c r="FL32" s="54"/>
+      <c r="FM32" s="54"/>
+      <c r="FN32" s="55"/>
+      <c r="FP32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="FQ32" s="62"/>
-      <c r="FR32" s="62"/>
-      <c r="FS32" s="63"/>
-      <c r="FU32" s="61" t="s">
+      <c r="FQ32" s="54"/>
+      <c r="FR32" s="54"/>
+      <c r="FS32" s="55"/>
+      <c r="FU32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="FV32" s="62"/>
-      <c r="FW32" s="62"/>
-      <c r="FX32" s="63"/>
-      <c r="FZ32" s="61" t="s">
+      <c r="FV32" s="54"/>
+      <c r="FW32" s="54"/>
+      <c r="FX32" s="55"/>
+      <c r="FZ32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="GA32" s="62"/>
-      <c r="GB32" s="62"/>
-      <c r="GC32" s="63"/>
-      <c r="GE32" s="61" t="s">
+      <c r="GA32" s="54"/>
+      <c r="GB32" s="54"/>
+      <c r="GC32" s="55"/>
+      <c r="GE32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="GF32" s="62"/>
-      <c r="GG32" s="62"/>
-      <c r="GH32" s="63"/>
-      <c r="GJ32" s="61" t="s">
+      <c r="GF32" s="54"/>
+      <c r="GG32" s="54"/>
+      <c r="GH32" s="55"/>
+      <c r="GJ32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="GK32" s="62"/>
-      <c r="GL32" s="62"/>
-      <c r="GM32" s="63"/>
-      <c r="GO32" s="61" t="s">
+      <c r="GK32" s="54"/>
+      <c r="GL32" s="54"/>
+      <c r="GM32" s="55"/>
+      <c r="GO32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="GP32" s="62"/>
-      <c r="GQ32" s="62"/>
-      <c r="GR32" s="63"/>
-      <c r="GT32" s="61" t="s">
+      <c r="GP32" s="54"/>
+      <c r="GQ32" s="54"/>
+      <c r="GR32" s="55"/>
+      <c r="GT32" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="GU32" s="62"/>
-      <c r="GV32" s="62"/>
-      <c r="GW32" s="63"/>
+      <c r="GU32" s="54"/>
+      <c r="GV32" s="54"/>
+      <c r="GW32" s="55"/>
     </row>
-    <row r="33" spans="2:205" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:205" x14ac:dyDescent="0.3">
       <c r="B33" s="29" t="s">
         <v>2</v>
       </c>
@@ -26638,7 +26923,7 @@
       </c>
       <c r="GW33" s="30"/>
     </row>
-    <row r="34" spans="2:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="29">
         <f>SUM(E23:E28)</f>
         <v>2</v>
@@ -27173,255 +27458,255 @@
       </c>
       <c r="GW34" s="30"/>
     </row>
-    <row r="35" spans="2:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="61" t="s">
+    <row r="35" spans="2:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63"/>
-      <c r="G35" s="61" t="s">
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
+      <c r="G35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="63"/>
-      <c r="L35" s="61" t="s">
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="55"/>
+      <c r="L35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="63"/>
-      <c r="Q35" s="61" t="s">
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="55"/>
+      <c r="Q35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="R35" s="62"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="63"/>
-      <c r="V35" s="61" t="s">
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="55"/>
+      <c r="V35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="63"/>
-      <c r="AA35" s="61" t="s">
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="55"/>
+      <c r="AA35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AB35" s="62"/>
-      <c r="AC35" s="62"/>
-      <c r="AD35" s="63"/>
-      <c r="AF35" s="61" t="s">
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="54"/>
+      <c r="AD35" s="55"/>
+      <c r="AF35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AG35" s="62"/>
-      <c r="AH35" s="62"/>
-      <c r="AI35" s="63"/>
-      <c r="AK35" s="61" t="s">
+      <c r="AG35" s="54"/>
+      <c r="AH35" s="54"/>
+      <c r="AI35" s="55"/>
+      <c r="AK35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AL35" s="62"/>
-      <c r="AM35" s="62"/>
-      <c r="AN35" s="63"/>
-      <c r="AP35" s="61" t="s">
+      <c r="AL35" s="54"/>
+      <c r="AM35" s="54"/>
+      <c r="AN35" s="55"/>
+      <c r="AP35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AQ35" s="62"/>
-      <c r="AR35" s="62"/>
-      <c r="AS35" s="63"/>
-      <c r="AU35" s="61" t="s">
+      <c r="AQ35" s="54"/>
+      <c r="AR35" s="54"/>
+      <c r="AS35" s="55"/>
+      <c r="AU35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AV35" s="62"/>
-      <c r="AW35" s="62"/>
-      <c r="AX35" s="63"/>
-      <c r="AZ35" s="61" t="s">
+      <c r="AV35" s="54"/>
+      <c r="AW35" s="54"/>
+      <c r="AX35" s="55"/>
+      <c r="AZ35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="BA35" s="62"/>
-      <c r="BB35" s="62"/>
-      <c r="BC35" s="63"/>
-      <c r="BE35" s="61" t="s">
+      <c r="BA35" s="54"/>
+      <c r="BB35" s="54"/>
+      <c r="BC35" s="55"/>
+      <c r="BE35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="BF35" s="62"/>
-      <c r="BG35" s="62"/>
-      <c r="BH35" s="63"/>
-      <c r="BJ35" s="61" t="s">
+      <c r="BF35" s="54"/>
+      <c r="BG35" s="54"/>
+      <c r="BH35" s="55"/>
+      <c r="BJ35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="BK35" s="62"/>
-      <c r="BL35" s="62"/>
-      <c r="BM35" s="63"/>
-      <c r="BO35" s="61" t="s">
+      <c r="BK35" s="54"/>
+      <c r="BL35" s="54"/>
+      <c r="BM35" s="55"/>
+      <c r="BO35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="BP35" s="62"/>
-      <c r="BQ35" s="62"/>
-      <c r="BR35" s="63"/>
-      <c r="BT35" s="61" t="s">
+      <c r="BP35" s="54"/>
+      <c r="BQ35" s="54"/>
+      <c r="BR35" s="55"/>
+      <c r="BT35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="BU35" s="62"/>
-      <c r="BV35" s="62"/>
-      <c r="BW35" s="63"/>
-      <c r="BY35" s="61" t="s">
+      <c r="BU35" s="54"/>
+      <c r="BV35" s="54"/>
+      <c r="BW35" s="55"/>
+      <c r="BY35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="BZ35" s="62"/>
-      <c r="CA35" s="62"/>
-      <c r="CB35" s="63"/>
-      <c r="CD35" s="61" t="s">
+      <c r="BZ35" s="54"/>
+      <c r="CA35" s="54"/>
+      <c r="CB35" s="55"/>
+      <c r="CD35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="CE35" s="62"/>
-      <c r="CF35" s="62"/>
-      <c r="CG35" s="63"/>
-      <c r="CI35" s="61" t="s">
+      <c r="CE35" s="54"/>
+      <c r="CF35" s="54"/>
+      <c r="CG35" s="55"/>
+      <c r="CI35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="CJ35" s="62"/>
-      <c r="CK35" s="62"/>
-      <c r="CL35" s="63"/>
-      <c r="CN35" s="61" t="s">
+      <c r="CJ35" s="54"/>
+      <c r="CK35" s="54"/>
+      <c r="CL35" s="55"/>
+      <c r="CN35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="CO35" s="62"/>
-      <c r="CP35" s="62"/>
-      <c r="CQ35" s="63"/>
-      <c r="CS35" s="61" t="s">
+      <c r="CO35" s="54"/>
+      <c r="CP35" s="54"/>
+      <c r="CQ35" s="55"/>
+      <c r="CS35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="CT35" s="62"/>
-      <c r="CU35" s="62"/>
-      <c r="CV35" s="63"/>
-      <c r="CX35" s="61" t="s">
+      <c r="CT35" s="54"/>
+      <c r="CU35" s="54"/>
+      <c r="CV35" s="55"/>
+      <c r="CX35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="CY35" s="62"/>
-      <c r="CZ35" s="62"/>
-      <c r="DA35" s="63"/>
-      <c r="DC35" s="61" t="s">
+      <c r="CY35" s="54"/>
+      <c r="CZ35" s="54"/>
+      <c r="DA35" s="55"/>
+      <c r="DC35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="DD35" s="62"/>
-      <c r="DE35" s="62"/>
-      <c r="DF35" s="63"/>
-      <c r="DH35" s="61" t="s">
+      <c r="DD35" s="54"/>
+      <c r="DE35" s="54"/>
+      <c r="DF35" s="55"/>
+      <c r="DH35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="DI35" s="62"/>
-      <c r="DJ35" s="62"/>
-      <c r="DK35" s="63"/>
-      <c r="DM35" s="61" t="s">
+      <c r="DI35" s="54"/>
+      <c r="DJ35" s="54"/>
+      <c r="DK35" s="55"/>
+      <c r="DM35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="DN35" s="62"/>
-      <c r="DO35" s="62"/>
-      <c r="DP35" s="63"/>
-      <c r="DR35" s="61" t="s">
+      <c r="DN35" s="54"/>
+      <c r="DO35" s="54"/>
+      <c r="DP35" s="55"/>
+      <c r="DR35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="DS35" s="62"/>
-      <c r="DT35" s="62"/>
-      <c r="DU35" s="63"/>
-      <c r="DW35" s="61" t="s">
+      <c r="DS35" s="54"/>
+      <c r="DT35" s="54"/>
+      <c r="DU35" s="55"/>
+      <c r="DW35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="DX35" s="62"/>
-      <c r="DY35" s="62"/>
-      <c r="DZ35" s="63"/>
-      <c r="EB35" s="61" t="s">
+      <c r="DX35" s="54"/>
+      <c r="DY35" s="54"/>
+      <c r="DZ35" s="55"/>
+      <c r="EB35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="EC35" s="62"/>
-      <c r="ED35" s="62"/>
-      <c r="EE35" s="63"/>
-      <c r="EG35" s="61" t="s">
+      <c r="EC35" s="54"/>
+      <c r="ED35" s="54"/>
+      <c r="EE35" s="55"/>
+      <c r="EG35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="EH35" s="62"/>
-      <c r="EI35" s="62"/>
-      <c r="EJ35" s="63"/>
-      <c r="EL35" s="61" t="s">
+      <c r="EH35" s="54"/>
+      <c r="EI35" s="54"/>
+      <c r="EJ35" s="55"/>
+      <c r="EL35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="EM35" s="62"/>
-      <c r="EN35" s="62"/>
-      <c r="EO35" s="63"/>
-      <c r="EQ35" s="61" t="s">
+      <c r="EM35" s="54"/>
+      <c r="EN35" s="54"/>
+      <c r="EO35" s="55"/>
+      <c r="EQ35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="ER35" s="62"/>
-      <c r="ES35" s="62"/>
-      <c r="ET35" s="63"/>
-      <c r="EV35" s="61" t="s">
+      <c r="ER35" s="54"/>
+      <c r="ES35" s="54"/>
+      <c r="ET35" s="55"/>
+      <c r="EV35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="EW35" s="62"/>
-      <c r="EX35" s="62"/>
-      <c r="EY35" s="63"/>
-      <c r="FA35" s="61" t="s">
+      <c r="EW35" s="54"/>
+      <c r="EX35" s="54"/>
+      <c r="EY35" s="55"/>
+      <c r="FA35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="FB35" s="62"/>
-      <c r="FC35" s="62"/>
-      <c r="FD35" s="63"/>
-      <c r="FF35" s="61" t="s">
+      <c r="FB35" s="54"/>
+      <c r="FC35" s="54"/>
+      <c r="FD35" s="55"/>
+      <c r="FF35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="FG35" s="62"/>
-      <c r="FH35" s="62"/>
-      <c r="FI35" s="63"/>
-      <c r="FK35" s="61" t="s">
+      <c r="FG35" s="54"/>
+      <c r="FH35" s="54"/>
+      <c r="FI35" s="55"/>
+      <c r="FK35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="FL35" s="62"/>
-      <c r="FM35" s="62"/>
-      <c r="FN35" s="63"/>
-      <c r="FP35" s="61" t="s">
+      <c r="FL35" s="54"/>
+      <c r="FM35" s="54"/>
+      <c r="FN35" s="55"/>
+      <c r="FP35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="FQ35" s="62"/>
-      <c r="FR35" s="62"/>
-      <c r="FS35" s="63"/>
-      <c r="FU35" s="61" t="s">
+      <c r="FQ35" s="54"/>
+      <c r="FR35" s="54"/>
+      <c r="FS35" s="55"/>
+      <c r="FU35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="FV35" s="62"/>
-      <c r="FW35" s="62"/>
-      <c r="FX35" s="63"/>
-      <c r="FZ35" s="61" t="s">
+      <c r="FV35" s="54"/>
+      <c r="FW35" s="54"/>
+      <c r="FX35" s="55"/>
+      <c r="FZ35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="GA35" s="62"/>
-      <c r="GB35" s="62"/>
-      <c r="GC35" s="63"/>
-      <c r="GE35" s="61" t="s">
+      <c r="GA35" s="54"/>
+      <c r="GB35" s="54"/>
+      <c r="GC35" s="55"/>
+      <c r="GE35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="GF35" s="62"/>
-      <c r="GG35" s="62"/>
-      <c r="GH35" s="63"/>
-      <c r="GJ35" s="61" t="s">
+      <c r="GF35" s="54"/>
+      <c r="GG35" s="54"/>
+      <c r="GH35" s="55"/>
+      <c r="GJ35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="GK35" s="62"/>
-      <c r="GL35" s="62"/>
-      <c r="GM35" s="63"/>
-      <c r="GO35" s="61" t="s">
+      <c r="GK35" s="54"/>
+      <c r="GL35" s="54"/>
+      <c r="GM35" s="55"/>
+      <c r="GO35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="GP35" s="62"/>
-      <c r="GQ35" s="62"/>
-      <c r="GR35" s="63"/>
-      <c r="GT35" s="61" t="s">
+      <c r="GP35" s="54"/>
+      <c r="GQ35" s="54"/>
+      <c r="GR35" s="55"/>
+      <c r="GT35" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="GU35" s="62"/>
-      <c r="GV35" s="62"/>
-      <c r="GW35" s="63"/>
+      <c r="GU35" s="54"/>
+      <c r="GV35" s="54"/>
+      <c r="GW35" s="55"/>
     </row>
-    <row r="36" spans="2:205" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:205" x14ac:dyDescent="0.3">
       <c r="B36" s="29" t="s">
         <v>16</v>
       </c>
@@ -27833,7 +28118,7 @@
       </c>
       <c r="GW36" s="30"/>
     </row>
-    <row r="37" spans="2:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="29">
         <f>B34-B31</f>
         <v>1</v>
@@ -28368,255 +28653,255 @@
       </c>
       <c r="GW37" s="30"/>
     </row>
-    <row r="38" spans="2:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="61" t="s">
+    <row r="38" spans="2:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="63"/>
-      <c r="G38" s="61" t="s">
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55"/>
+      <c r="G38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="63"/>
-      <c r="L38" s="61" t="s">
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="55"/>
+      <c r="L38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="63"/>
-      <c r="Q38" s="61" t="s">
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="55"/>
+      <c r="Q38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="63"/>
-      <c r="V38" s="61" t="s">
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="55"/>
+      <c r="V38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="63"/>
-      <c r="AA38" s="61" t="s">
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="55"/>
+      <c r="AA38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AB38" s="62"/>
-      <c r="AC38" s="62"/>
-      <c r="AD38" s="63"/>
-      <c r="AF38" s="61" t="s">
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="55"/>
+      <c r="AF38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AG38" s="62"/>
-      <c r="AH38" s="62"/>
-      <c r="AI38" s="63"/>
-      <c r="AK38" s="61" t="s">
+      <c r="AG38" s="54"/>
+      <c r="AH38" s="54"/>
+      <c r="AI38" s="55"/>
+      <c r="AK38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AL38" s="62"/>
-      <c r="AM38" s="62"/>
-      <c r="AN38" s="63"/>
-      <c r="AP38" s="61" t="s">
+      <c r="AL38" s="54"/>
+      <c r="AM38" s="54"/>
+      <c r="AN38" s="55"/>
+      <c r="AP38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AQ38" s="62"/>
-      <c r="AR38" s="62"/>
-      <c r="AS38" s="63"/>
-      <c r="AU38" s="61" t="s">
+      <c r="AQ38" s="54"/>
+      <c r="AR38" s="54"/>
+      <c r="AS38" s="55"/>
+      <c r="AU38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="AV38" s="62"/>
-      <c r="AW38" s="62"/>
-      <c r="AX38" s="63"/>
-      <c r="AZ38" s="61" t="s">
+      <c r="AV38" s="54"/>
+      <c r="AW38" s="54"/>
+      <c r="AX38" s="55"/>
+      <c r="AZ38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BA38" s="62"/>
-      <c r="BB38" s="62"/>
-      <c r="BC38" s="63"/>
-      <c r="BE38" s="61" t="s">
+      <c r="BA38" s="54"/>
+      <c r="BB38" s="54"/>
+      <c r="BC38" s="55"/>
+      <c r="BE38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BF38" s="62"/>
-      <c r="BG38" s="62"/>
-      <c r="BH38" s="63"/>
-      <c r="BJ38" s="61" t="s">
+      <c r="BF38" s="54"/>
+      <c r="BG38" s="54"/>
+      <c r="BH38" s="55"/>
+      <c r="BJ38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BK38" s="62"/>
-      <c r="BL38" s="62"/>
-      <c r="BM38" s="63"/>
-      <c r="BO38" s="61" t="s">
+      <c r="BK38" s="54"/>
+      <c r="BL38" s="54"/>
+      <c r="BM38" s="55"/>
+      <c r="BO38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BP38" s="62"/>
-      <c r="BQ38" s="62"/>
-      <c r="BR38" s="63"/>
-      <c r="BT38" s="61" t="s">
+      <c r="BP38" s="54"/>
+      <c r="BQ38" s="54"/>
+      <c r="BR38" s="55"/>
+      <c r="BT38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BU38" s="62"/>
-      <c r="BV38" s="62"/>
-      <c r="BW38" s="63"/>
-      <c r="BY38" s="61" t="s">
+      <c r="BU38" s="54"/>
+      <c r="BV38" s="54"/>
+      <c r="BW38" s="55"/>
+      <c r="BY38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="BZ38" s="62"/>
-      <c r="CA38" s="62"/>
-      <c r="CB38" s="63"/>
-      <c r="CD38" s="61" t="s">
+      <c r="BZ38" s="54"/>
+      <c r="CA38" s="54"/>
+      <c r="CB38" s="55"/>
+      <c r="CD38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="CE38" s="62"/>
-      <c r="CF38" s="62"/>
-      <c r="CG38" s="63"/>
-      <c r="CI38" s="61" t="s">
+      <c r="CE38" s="54"/>
+      <c r="CF38" s="54"/>
+      <c r="CG38" s="55"/>
+      <c r="CI38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="CJ38" s="62"/>
-      <c r="CK38" s="62"/>
-      <c r="CL38" s="63"/>
-      <c r="CN38" s="61" t="s">
+      <c r="CJ38" s="54"/>
+      <c r="CK38" s="54"/>
+      <c r="CL38" s="55"/>
+      <c r="CN38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="CO38" s="62"/>
-      <c r="CP38" s="62"/>
-      <c r="CQ38" s="63"/>
-      <c r="CS38" s="61" t="s">
+      <c r="CO38" s="54"/>
+      <c r="CP38" s="54"/>
+      <c r="CQ38" s="55"/>
+      <c r="CS38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="CT38" s="62"/>
-      <c r="CU38" s="62"/>
-      <c r="CV38" s="63"/>
-      <c r="CX38" s="61" t="s">
+      <c r="CT38" s="54"/>
+      <c r="CU38" s="54"/>
+      <c r="CV38" s="55"/>
+      <c r="CX38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="CY38" s="62"/>
-      <c r="CZ38" s="62"/>
-      <c r="DA38" s="63"/>
-      <c r="DC38" s="61" t="s">
+      <c r="CY38" s="54"/>
+      <c r="CZ38" s="54"/>
+      <c r="DA38" s="55"/>
+      <c r="DC38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="DD38" s="62"/>
-      <c r="DE38" s="62"/>
-      <c r="DF38" s="63"/>
-      <c r="DH38" s="61" t="s">
+      <c r="DD38" s="54"/>
+      <c r="DE38" s="54"/>
+      <c r="DF38" s="55"/>
+      <c r="DH38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="DI38" s="62"/>
-      <c r="DJ38" s="62"/>
-      <c r="DK38" s="63"/>
-      <c r="DM38" s="61" t="s">
+      <c r="DI38" s="54"/>
+      <c r="DJ38" s="54"/>
+      <c r="DK38" s="55"/>
+      <c r="DM38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="DN38" s="62"/>
-      <c r="DO38" s="62"/>
-      <c r="DP38" s="63"/>
-      <c r="DR38" s="61" t="s">
+      <c r="DN38" s="54"/>
+      <c r="DO38" s="54"/>
+      <c r="DP38" s="55"/>
+      <c r="DR38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="DS38" s="62"/>
-      <c r="DT38" s="62"/>
-      <c r="DU38" s="63"/>
-      <c r="DW38" s="61" t="s">
+      <c r="DS38" s="54"/>
+      <c r="DT38" s="54"/>
+      <c r="DU38" s="55"/>
+      <c r="DW38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="DX38" s="62"/>
-      <c r="DY38" s="62"/>
-      <c r="DZ38" s="63"/>
-      <c r="EB38" s="61" t="s">
+      <c r="DX38" s="54"/>
+      <c r="DY38" s="54"/>
+      <c r="DZ38" s="55"/>
+      <c r="EB38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="EC38" s="62"/>
-      <c r="ED38" s="62"/>
-      <c r="EE38" s="63"/>
-      <c r="EG38" s="61" t="s">
+      <c r="EC38" s="54"/>
+      <c r="ED38" s="54"/>
+      <c r="EE38" s="55"/>
+      <c r="EG38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="EH38" s="62"/>
-      <c r="EI38" s="62"/>
-      <c r="EJ38" s="63"/>
-      <c r="EL38" s="61" t="s">
+      <c r="EH38" s="54"/>
+      <c r="EI38" s="54"/>
+      <c r="EJ38" s="55"/>
+      <c r="EL38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="EM38" s="62"/>
-      <c r="EN38" s="62"/>
-      <c r="EO38" s="63"/>
-      <c r="EQ38" s="61" t="s">
+      <c r="EM38" s="54"/>
+      <c r="EN38" s="54"/>
+      <c r="EO38" s="55"/>
+      <c r="EQ38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="ER38" s="62"/>
-      <c r="ES38" s="62"/>
-      <c r="ET38" s="63"/>
-      <c r="EV38" s="61" t="s">
+      <c r="ER38" s="54"/>
+      <c r="ES38" s="54"/>
+      <c r="ET38" s="55"/>
+      <c r="EV38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="EW38" s="62"/>
-      <c r="EX38" s="62"/>
-      <c r="EY38" s="63"/>
-      <c r="FA38" s="61" t="s">
+      <c r="EW38" s="54"/>
+      <c r="EX38" s="54"/>
+      <c r="EY38" s="55"/>
+      <c r="FA38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="FB38" s="62"/>
-      <c r="FC38" s="62"/>
-      <c r="FD38" s="63"/>
-      <c r="FF38" s="61" t="s">
+      <c r="FB38" s="54"/>
+      <c r="FC38" s="54"/>
+      <c r="FD38" s="55"/>
+      <c r="FF38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="FG38" s="62"/>
-      <c r="FH38" s="62"/>
-      <c r="FI38" s="63"/>
-      <c r="FK38" s="61" t="s">
+      <c r="FG38" s="54"/>
+      <c r="FH38" s="54"/>
+      <c r="FI38" s="55"/>
+      <c r="FK38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="FL38" s="62"/>
-      <c r="FM38" s="62"/>
-      <c r="FN38" s="63"/>
-      <c r="FP38" s="61" t="s">
+      <c r="FL38" s="54"/>
+      <c r="FM38" s="54"/>
+      <c r="FN38" s="55"/>
+      <c r="FP38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="FQ38" s="62"/>
-      <c r="FR38" s="62"/>
-      <c r="FS38" s="63"/>
-      <c r="FU38" s="61" t="s">
+      <c r="FQ38" s="54"/>
+      <c r="FR38" s="54"/>
+      <c r="FS38" s="55"/>
+      <c r="FU38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="FV38" s="62"/>
-      <c r="FW38" s="62"/>
-      <c r="FX38" s="63"/>
-      <c r="FZ38" s="61" t="s">
+      <c r="FV38" s="54"/>
+      <c r="FW38" s="54"/>
+      <c r="FX38" s="55"/>
+      <c r="FZ38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="GA38" s="62"/>
-      <c r="GB38" s="62"/>
-      <c r="GC38" s="63"/>
-      <c r="GE38" s="61" t="s">
+      <c r="GA38" s="54"/>
+      <c r="GB38" s="54"/>
+      <c r="GC38" s="55"/>
+      <c r="GE38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="GF38" s="62"/>
-      <c r="GG38" s="62"/>
-      <c r="GH38" s="63"/>
-      <c r="GJ38" s="61" t="s">
+      <c r="GF38" s="54"/>
+      <c r="GG38" s="54"/>
+      <c r="GH38" s="55"/>
+      <c r="GJ38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="GK38" s="62"/>
-      <c r="GL38" s="62"/>
-      <c r="GM38" s="63"/>
-      <c r="GO38" s="61" t="s">
+      <c r="GK38" s="54"/>
+      <c r="GL38" s="54"/>
+      <c r="GM38" s="55"/>
+      <c r="GO38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="GP38" s="62"/>
-      <c r="GQ38" s="62"/>
-      <c r="GR38" s="63"/>
-      <c r="GT38" s="61" t="s">
+      <c r="GP38" s="54"/>
+      <c r="GQ38" s="54"/>
+      <c r="GR38" s="55"/>
+      <c r="GT38" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="GU38" s="62"/>
-      <c r="GV38" s="62"/>
-      <c r="GW38" s="63"/>
+      <c r="GU38" s="54"/>
+      <c r="GV38" s="54"/>
+      <c r="GW38" s="55"/>
     </row>
-    <row r="39" spans="2:205" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:205" x14ac:dyDescent="0.3">
       <c r="B39" s="29" t="s">
         <v>20</v>
       </c>
@@ -29028,7 +29313,7 @@
       </c>
       <c r="GW39" s="30"/>
     </row>
-    <row r="40" spans="2:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="36">
         <f>B37*$F$11</f>
         <v>0.22</v>
@@ -29563,255 +29848,255 @@
       </c>
       <c r="GW40" s="30"/>
     </row>
-    <row r="41" spans="2:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="61" t="s">
+    <row r="41" spans="2:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="63"/>
-      <c r="G41" s="61" t="s">
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="55"/>
+      <c r="G41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="63"/>
-      <c r="L41" s="61" t="s">
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="55"/>
+      <c r="L41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="63"/>
-      <c r="Q41" s="61" t="s">
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="55"/>
+      <c r="Q41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="63"/>
-      <c r="V41" s="61" t="s">
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="55"/>
+      <c r="V41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="W41" s="62"/>
-      <c r="X41" s="62"/>
-      <c r="Y41" s="63"/>
-      <c r="AA41" s="61" t="s">
+      <c r="W41" s="54"/>
+      <c r="X41" s="54"/>
+      <c r="Y41" s="55"/>
+      <c r="AA41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="AB41" s="62"/>
-      <c r="AC41" s="62"/>
-      <c r="AD41" s="63"/>
-      <c r="AF41" s="61" t="s">
+      <c r="AB41" s="54"/>
+      <c r="AC41" s="54"/>
+      <c r="AD41" s="55"/>
+      <c r="AF41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="AG41" s="62"/>
-      <c r="AH41" s="62"/>
-      <c r="AI41" s="63"/>
-      <c r="AK41" s="61" t="s">
+      <c r="AG41" s="54"/>
+      <c r="AH41" s="54"/>
+      <c r="AI41" s="55"/>
+      <c r="AK41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="AL41" s="62"/>
-      <c r="AM41" s="62"/>
-      <c r="AN41" s="63"/>
-      <c r="AP41" s="61" t="s">
+      <c r="AL41" s="54"/>
+      <c r="AM41" s="54"/>
+      <c r="AN41" s="55"/>
+      <c r="AP41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="AQ41" s="62"/>
-      <c r="AR41" s="62"/>
-      <c r="AS41" s="63"/>
-      <c r="AU41" s="61" t="s">
+      <c r="AQ41" s="54"/>
+      <c r="AR41" s="54"/>
+      <c r="AS41" s="55"/>
+      <c r="AU41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="AV41" s="62"/>
-      <c r="AW41" s="62"/>
-      <c r="AX41" s="63"/>
-      <c r="AZ41" s="61" t="s">
+      <c r="AV41" s="54"/>
+      <c r="AW41" s="54"/>
+      <c r="AX41" s="55"/>
+      <c r="AZ41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="BA41" s="62"/>
-      <c r="BB41" s="62"/>
-      <c r="BC41" s="63"/>
-      <c r="BE41" s="61" t="s">
+      <c r="BA41" s="54"/>
+      <c r="BB41" s="54"/>
+      <c r="BC41" s="55"/>
+      <c r="BE41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="BF41" s="62"/>
-      <c r="BG41" s="62"/>
-      <c r="BH41" s="63"/>
-      <c r="BJ41" s="61" t="s">
+      <c r="BF41" s="54"/>
+      <c r="BG41" s="54"/>
+      <c r="BH41" s="55"/>
+      <c r="BJ41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="BK41" s="62"/>
-      <c r="BL41" s="62"/>
-      <c r="BM41" s="63"/>
-      <c r="BO41" s="61" t="s">
+      <c r="BK41" s="54"/>
+      <c r="BL41" s="54"/>
+      <c r="BM41" s="55"/>
+      <c r="BO41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="BP41" s="62"/>
-      <c r="BQ41" s="62"/>
-      <c r="BR41" s="63"/>
-      <c r="BT41" s="61" t="s">
+      <c r="BP41" s="54"/>
+      <c r="BQ41" s="54"/>
+      <c r="BR41" s="55"/>
+      <c r="BT41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="BU41" s="62"/>
-      <c r="BV41" s="62"/>
-      <c r="BW41" s="63"/>
-      <c r="BY41" s="61" t="s">
+      <c r="BU41" s="54"/>
+      <c r="BV41" s="54"/>
+      <c r="BW41" s="55"/>
+      <c r="BY41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="BZ41" s="62"/>
-      <c r="CA41" s="62"/>
-      <c r="CB41" s="63"/>
-      <c r="CD41" s="61" t="s">
+      <c r="BZ41" s="54"/>
+      <c r="CA41" s="54"/>
+      <c r="CB41" s="55"/>
+      <c r="CD41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="CE41" s="62"/>
-      <c r="CF41" s="62"/>
-      <c r="CG41" s="63"/>
-      <c r="CI41" s="61" t="s">
+      <c r="CE41" s="54"/>
+      <c r="CF41" s="54"/>
+      <c r="CG41" s="55"/>
+      <c r="CI41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="CJ41" s="62"/>
-      <c r="CK41" s="62"/>
-      <c r="CL41" s="63"/>
-      <c r="CN41" s="61" t="s">
+      <c r="CJ41" s="54"/>
+      <c r="CK41" s="54"/>
+      <c r="CL41" s="55"/>
+      <c r="CN41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="CO41" s="62"/>
-      <c r="CP41" s="62"/>
-      <c r="CQ41" s="63"/>
-      <c r="CS41" s="61" t="s">
+      <c r="CO41" s="54"/>
+      <c r="CP41" s="54"/>
+      <c r="CQ41" s="55"/>
+      <c r="CS41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="CT41" s="62"/>
-      <c r="CU41" s="62"/>
-      <c r="CV41" s="63"/>
-      <c r="CX41" s="61" t="s">
+      <c r="CT41" s="54"/>
+      <c r="CU41" s="54"/>
+      <c r="CV41" s="55"/>
+      <c r="CX41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="CY41" s="62"/>
-      <c r="CZ41" s="62"/>
-      <c r="DA41" s="63"/>
-      <c r="DC41" s="61" t="s">
+      <c r="CY41" s="54"/>
+      <c r="CZ41" s="54"/>
+      <c r="DA41" s="55"/>
+      <c r="DC41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="DD41" s="62"/>
-      <c r="DE41" s="62"/>
-      <c r="DF41" s="63"/>
-      <c r="DH41" s="61" t="s">
+      <c r="DD41" s="54"/>
+      <c r="DE41" s="54"/>
+      <c r="DF41" s="55"/>
+      <c r="DH41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="DI41" s="62"/>
-      <c r="DJ41" s="62"/>
-      <c r="DK41" s="63"/>
-      <c r="DM41" s="61" t="s">
+      <c r="DI41" s="54"/>
+      <c r="DJ41" s="54"/>
+      <c r="DK41" s="55"/>
+      <c r="DM41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="DN41" s="62"/>
-      <c r="DO41" s="62"/>
-      <c r="DP41" s="63"/>
-      <c r="DR41" s="61" t="s">
+      <c r="DN41" s="54"/>
+      <c r="DO41" s="54"/>
+      <c r="DP41" s="55"/>
+      <c r="DR41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="DS41" s="62"/>
-      <c r="DT41" s="62"/>
-      <c r="DU41" s="63"/>
-      <c r="DW41" s="61" t="s">
+      <c r="DS41" s="54"/>
+      <c r="DT41" s="54"/>
+      <c r="DU41" s="55"/>
+      <c r="DW41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="DX41" s="62"/>
-      <c r="DY41" s="62"/>
-      <c r="DZ41" s="63"/>
-      <c r="EB41" s="61" t="s">
+      <c r="DX41" s="54"/>
+      <c r="DY41" s="54"/>
+      <c r="DZ41" s="55"/>
+      <c r="EB41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="EC41" s="62"/>
-      <c r="ED41" s="62"/>
-      <c r="EE41" s="63"/>
-      <c r="EG41" s="61" t="s">
+      <c r="EC41" s="54"/>
+      <c r="ED41" s="54"/>
+      <c r="EE41" s="55"/>
+      <c r="EG41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="EH41" s="62"/>
-      <c r="EI41" s="62"/>
-      <c r="EJ41" s="63"/>
-      <c r="EL41" s="61" t="s">
+      <c r="EH41" s="54"/>
+      <c r="EI41" s="54"/>
+      <c r="EJ41" s="55"/>
+      <c r="EL41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="EM41" s="62"/>
-      <c r="EN41" s="62"/>
-      <c r="EO41" s="63"/>
-      <c r="EQ41" s="61" t="s">
+      <c r="EM41" s="54"/>
+      <c r="EN41" s="54"/>
+      <c r="EO41" s="55"/>
+      <c r="EQ41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="ER41" s="62"/>
-      <c r="ES41" s="62"/>
-      <c r="ET41" s="63"/>
-      <c r="EV41" s="61" t="s">
+      <c r="ER41" s="54"/>
+      <c r="ES41" s="54"/>
+      <c r="ET41" s="55"/>
+      <c r="EV41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="EW41" s="62"/>
-      <c r="EX41" s="62"/>
-      <c r="EY41" s="63"/>
-      <c r="FA41" s="61" t="s">
+      <c r="EW41" s="54"/>
+      <c r="EX41" s="54"/>
+      <c r="EY41" s="55"/>
+      <c r="FA41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="FB41" s="62"/>
-      <c r="FC41" s="62"/>
-      <c r="FD41" s="63"/>
-      <c r="FF41" s="61" t="s">
+      <c r="FB41" s="54"/>
+      <c r="FC41" s="54"/>
+      <c r="FD41" s="55"/>
+      <c r="FF41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="FG41" s="62"/>
-      <c r="FH41" s="62"/>
-      <c r="FI41" s="63"/>
-      <c r="FK41" s="61" t="s">
+      <c r="FG41" s="54"/>
+      <c r="FH41" s="54"/>
+      <c r="FI41" s="55"/>
+      <c r="FK41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="FL41" s="62"/>
-      <c r="FM41" s="62"/>
-      <c r="FN41" s="63"/>
-      <c r="FP41" s="61" t="s">
+      <c r="FL41" s="54"/>
+      <c r="FM41" s="54"/>
+      <c r="FN41" s="55"/>
+      <c r="FP41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="FQ41" s="62"/>
-      <c r="FR41" s="62"/>
-      <c r="FS41" s="63"/>
-      <c r="FU41" s="61" t="s">
+      <c r="FQ41" s="54"/>
+      <c r="FR41" s="54"/>
+      <c r="FS41" s="55"/>
+      <c r="FU41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="FV41" s="62"/>
-      <c r="FW41" s="62"/>
-      <c r="FX41" s="63"/>
-      <c r="FZ41" s="61" t="s">
+      <c r="FV41" s="54"/>
+      <c r="FW41" s="54"/>
+      <c r="FX41" s="55"/>
+      <c r="FZ41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="GA41" s="62"/>
-      <c r="GB41" s="62"/>
-      <c r="GC41" s="63"/>
-      <c r="GE41" s="61" t="s">
+      <c r="GA41" s="54"/>
+      <c r="GB41" s="54"/>
+      <c r="GC41" s="55"/>
+      <c r="GE41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="GF41" s="62"/>
-      <c r="GG41" s="62"/>
-      <c r="GH41" s="63"/>
-      <c r="GJ41" s="61" t="s">
+      <c r="GF41" s="54"/>
+      <c r="GG41" s="54"/>
+      <c r="GH41" s="55"/>
+      <c r="GJ41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="GK41" s="62"/>
-      <c r="GL41" s="62"/>
-      <c r="GM41" s="63"/>
-      <c r="GO41" s="61" t="s">
+      <c r="GK41" s="54"/>
+      <c r="GL41" s="54"/>
+      <c r="GM41" s="55"/>
+      <c r="GO41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="GP41" s="62"/>
-      <c r="GQ41" s="62"/>
-      <c r="GR41" s="63"/>
-      <c r="GT41" s="61" t="s">
+      <c r="GP41" s="54"/>
+      <c r="GQ41" s="54"/>
+      <c r="GR41" s="55"/>
+      <c r="GT41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="GU41" s="62"/>
-      <c r="GV41" s="62"/>
-      <c r="GW41" s="63"/>
+      <c r="GU41" s="54"/>
+      <c r="GV41" s="54"/>
+      <c r="GW41" s="55"/>
     </row>
-    <row r="42" spans="2:205" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:205" x14ac:dyDescent="0.3">
       <c r="B42" s="29" t="s">
         <v>3</v>
       </c>
@@ -30223,7 +30508,7 @@
       </c>
       <c r="GW42" s="30"/>
     </row>
-    <row r="43" spans="2:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="38">
         <f>B11+B40</f>
         <v>-2.78</v>
@@ -30758,255 +31043,255 @@
       </c>
       <c r="GW43" s="33"/>
     </row>
-    <row r="44" spans="2:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="61" t="s">
+    <row r="44" spans="2:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="63"/>
-      <c r="G44" s="61" t="s">
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="55"/>
+      <c r="G44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="63"/>
-      <c r="L44" s="61" t="s">
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="55"/>
+      <c r="L44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="63"/>
-      <c r="Q44" s="61" t="s">
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="55"/>
+      <c r="Q44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="R44" s="62"/>
-      <c r="S44" s="62"/>
-      <c r="T44" s="63"/>
-      <c r="V44" s="61" t="s">
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="55"/>
+      <c r="V44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="63"/>
-      <c r="AA44" s="61" t="s">
+      <c r="W44" s="54"/>
+      <c r="X44" s="54"/>
+      <c r="Y44" s="55"/>
+      <c r="AA44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AB44" s="62"/>
-      <c r="AC44" s="62"/>
-      <c r="AD44" s="63"/>
-      <c r="AF44" s="61" t="s">
+      <c r="AB44" s="54"/>
+      <c r="AC44" s="54"/>
+      <c r="AD44" s="55"/>
+      <c r="AF44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AG44" s="62"/>
-      <c r="AH44" s="62"/>
-      <c r="AI44" s="63"/>
-      <c r="AK44" s="61" t="s">
+      <c r="AG44" s="54"/>
+      <c r="AH44" s="54"/>
+      <c r="AI44" s="55"/>
+      <c r="AK44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AL44" s="62"/>
-      <c r="AM44" s="62"/>
-      <c r="AN44" s="63"/>
-      <c r="AP44" s="61" t="s">
+      <c r="AL44" s="54"/>
+      <c r="AM44" s="54"/>
+      <c r="AN44" s="55"/>
+      <c r="AP44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AQ44" s="62"/>
-      <c r="AR44" s="62"/>
-      <c r="AS44" s="63"/>
-      <c r="AU44" s="61" t="s">
+      <c r="AQ44" s="54"/>
+      <c r="AR44" s="54"/>
+      <c r="AS44" s="55"/>
+      <c r="AU44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AV44" s="62"/>
-      <c r="AW44" s="62"/>
-      <c r="AX44" s="63"/>
-      <c r="AZ44" s="61" t="s">
+      <c r="AV44" s="54"/>
+      <c r="AW44" s="54"/>
+      <c r="AX44" s="55"/>
+      <c r="AZ44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="BA44" s="62"/>
-      <c r="BB44" s="62"/>
-      <c r="BC44" s="63"/>
-      <c r="BE44" s="61" t="s">
+      <c r="BA44" s="54"/>
+      <c r="BB44" s="54"/>
+      <c r="BC44" s="55"/>
+      <c r="BE44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="BF44" s="62"/>
-      <c r="BG44" s="62"/>
-      <c r="BH44" s="63"/>
-      <c r="BJ44" s="61" t="s">
+      <c r="BF44" s="54"/>
+      <c r="BG44" s="54"/>
+      <c r="BH44" s="55"/>
+      <c r="BJ44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="BK44" s="62"/>
-      <c r="BL44" s="62"/>
-      <c r="BM44" s="63"/>
-      <c r="BO44" s="61" t="s">
+      <c r="BK44" s="54"/>
+      <c r="BL44" s="54"/>
+      <c r="BM44" s="55"/>
+      <c r="BO44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="BP44" s="62"/>
-      <c r="BQ44" s="62"/>
-      <c r="BR44" s="63"/>
-      <c r="BT44" s="61" t="s">
+      <c r="BP44" s="54"/>
+      <c r="BQ44" s="54"/>
+      <c r="BR44" s="55"/>
+      <c r="BT44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="BU44" s="62"/>
-      <c r="BV44" s="62"/>
-      <c r="BW44" s="63"/>
-      <c r="BY44" s="61" t="s">
+      <c r="BU44" s="54"/>
+      <c r="BV44" s="54"/>
+      <c r="BW44" s="55"/>
+      <c r="BY44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="BZ44" s="62"/>
-      <c r="CA44" s="62"/>
-      <c r="CB44" s="63"/>
-      <c r="CD44" s="61" t="s">
+      <c r="BZ44" s="54"/>
+      <c r="CA44" s="54"/>
+      <c r="CB44" s="55"/>
+      <c r="CD44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="CE44" s="62"/>
-      <c r="CF44" s="62"/>
-      <c r="CG44" s="63"/>
-      <c r="CI44" s="61" t="s">
+      <c r="CE44" s="54"/>
+      <c r="CF44" s="54"/>
+      <c r="CG44" s="55"/>
+      <c r="CI44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="CJ44" s="62"/>
-      <c r="CK44" s="62"/>
-      <c r="CL44" s="63"/>
-      <c r="CN44" s="61" t="s">
+      <c r="CJ44" s="54"/>
+      <c r="CK44" s="54"/>
+      <c r="CL44" s="55"/>
+      <c r="CN44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="CO44" s="62"/>
-      <c r="CP44" s="62"/>
-      <c r="CQ44" s="63"/>
-      <c r="CS44" s="61" t="s">
+      <c r="CO44" s="54"/>
+      <c r="CP44" s="54"/>
+      <c r="CQ44" s="55"/>
+      <c r="CS44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="CT44" s="62"/>
-      <c r="CU44" s="62"/>
-      <c r="CV44" s="63"/>
-      <c r="CX44" s="61" t="s">
+      <c r="CT44" s="54"/>
+      <c r="CU44" s="54"/>
+      <c r="CV44" s="55"/>
+      <c r="CX44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="CY44" s="62"/>
-      <c r="CZ44" s="62"/>
-      <c r="DA44" s="63"/>
-      <c r="DC44" s="61" t="s">
+      <c r="CY44" s="54"/>
+      <c r="CZ44" s="54"/>
+      <c r="DA44" s="55"/>
+      <c r="DC44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="DD44" s="62"/>
-      <c r="DE44" s="62"/>
-      <c r="DF44" s="63"/>
-      <c r="DH44" s="61" t="s">
+      <c r="DD44" s="54"/>
+      <c r="DE44" s="54"/>
+      <c r="DF44" s="55"/>
+      <c r="DH44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="DI44" s="62"/>
-      <c r="DJ44" s="62"/>
-      <c r="DK44" s="63"/>
-      <c r="DM44" s="61" t="s">
+      <c r="DI44" s="54"/>
+      <c r="DJ44" s="54"/>
+      <c r="DK44" s="55"/>
+      <c r="DM44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="DN44" s="62"/>
-      <c r="DO44" s="62"/>
-      <c r="DP44" s="63"/>
-      <c r="DR44" s="61" t="s">
+      <c r="DN44" s="54"/>
+      <c r="DO44" s="54"/>
+      <c r="DP44" s="55"/>
+      <c r="DR44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="DS44" s="62"/>
-      <c r="DT44" s="62"/>
-      <c r="DU44" s="63"/>
-      <c r="DW44" s="61" t="s">
+      <c r="DS44" s="54"/>
+      <c r="DT44" s="54"/>
+      <c r="DU44" s="55"/>
+      <c r="DW44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="DX44" s="62"/>
-      <c r="DY44" s="62"/>
-      <c r="DZ44" s="63"/>
-      <c r="EB44" s="61" t="s">
+      <c r="DX44" s="54"/>
+      <c r="DY44" s="54"/>
+      <c r="DZ44" s="55"/>
+      <c r="EB44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="EC44" s="62"/>
-      <c r="ED44" s="62"/>
-      <c r="EE44" s="63"/>
-      <c r="EG44" s="61" t="s">
+      <c r="EC44" s="54"/>
+      <c r="ED44" s="54"/>
+      <c r="EE44" s="55"/>
+      <c r="EG44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="EH44" s="62"/>
-      <c r="EI44" s="62"/>
-      <c r="EJ44" s="63"/>
-      <c r="EL44" s="61" t="s">
+      <c r="EH44" s="54"/>
+      <c r="EI44" s="54"/>
+      <c r="EJ44" s="55"/>
+      <c r="EL44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="EM44" s="62"/>
-      <c r="EN44" s="62"/>
-      <c r="EO44" s="63"/>
-      <c r="EQ44" s="61" t="s">
+      <c r="EM44" s="54"/>
+      <c r="EN44" s="54"/>
+      <c r="EO44" s="55"/>
+      <c r="EQ44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="ER44" s="62"/>
-      <c r="ES44" s="62"/>
-      <c r="ET44" s="63"/>
-      <c r="EV44" s="61" t="s">
+      <c r="ER44" s="54"/>
+      <c r="ES44" s="54"/>
+      <c r="ET44" s="55"/>
+      <c r="EV44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="EW44" s="62"/>
-      <c r="EX44" s="62"/>
-      <c r="EY44" s="63"/>
-      <c r="FA44" s="61" t="s">
+      <c r="EW44" s="54"/>
+      <c r="EX44" s="54"/>
+      <c r="EY44" s="55"/>
+      <c r="FA44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="FB44" s="62"/>
-      <c r="FC44" s="62"/>
-      <c r="FD44" s="63"/>
-      <c r="FF44" s="61" t="s">
+      <c r="FB44" s="54"/>
+      <c r="FC44" s="54"/>
+      <c r="FD44" s="55"/>
+      <c r="FF44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="FG44" s="62"/>
-      <c r="FH44" s="62"/>
-      <c r="FI44" s="63"/>
-      <c r="FK44" s="61" t="s">
+      <c r="FG44" s="54"/>
+      <c r="FH44" s="54"/>
+      <c r="FI44" s="55"/>
+      <c r="FK44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="FL44" s="62"/>
-      <c r="FM44" s="62"/>
-      <c r="FN44" s="63"/>
-      <c r="FP44" s="61" t="s">
+      <c r="FL44" s="54"/>
+      <c r="FM44" s="54"/>
+      <c r="FN44" s="55"/>
+      <c r="FP44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="FQ44" s="62"/>
-      <c r="FR44" s="62"/>
-      <c r="FS44" s="63"/>
-      <c r="FU44" s="61" t="s">
+      <c r="FQ44" s="54"/>
+      <c r="FR44" s="54"/>
+      <c r="FS44" s="55"/>
+      <c r="FU44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="FV44" s="62"/>
-      <c r="FW44" s="62"/>
-      <c r="FX44" s="63"/>
-      <c r="FZ44" s="61" t="s">
+      <c r="FV44" s="54"/>
+      <c r="FW44" s="54"/>
+      <c r="FX44" s="55"/>
+      <c r="FZ44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="GA44" s="62"/>
-      <c r="GB44" s="62"/>
-      <c r="GC44" s="63"/>
-      <c r="GE44" s="61" t="s">
+      <c r="GA44" s="54"/>
+      <c r="GB44" s="54"/>
+      <c r="GC44" s="55"/>
+      <c r="GE44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="GF44" s="62"/>
-      <c r="GG44" s="62"/>
-      <c r="GH44" s="63"/>
-      <c r="GJ44" s="61" t="s">
+      <c r="GF44" s="54"/>
+      <c r="GG44" s="54"/>
+      <c r="GH44" s="55"/>
+      <c r="GJ44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="GK44" s="62"/>
-      <c r="GL44" s="62"/>
-      <c r="GM44" s="63"/>
-      <c r="GO44" s="61" t="s">
+      <c r="GK44" s="54"/>
+      <c r="GL44" s="54"/>
+      <c r="GM44" s="55"/>
+      <c r="GO44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="GP44" s="62"/>
-      <c r="GQ44" s="62"/>
-      <c r="GR44" s="63"/>
-      <c r="GT44" s="61" t="s">
+      <c r="GP44" s="54"/>
+      <c r="GQ44" s="54"/>
+      <c r="GR44" s="55"/>
+      <c r="GT44" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="GU44" s="62"/>
-      <c r="GV44" s="62"/>
-      <c r="GW44" s="63"/>
+      <c r="GU44" s="54"/>
+      <c r="GV44" s="54"/>
+      <c r="GW44" s="55"/>
     </row>
-    <row r="45" spans="2:205" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:205" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="41" t="s">
         <v>25</v>
       </c>
@@ -31582,7 +31867,7 @@
         <v>-5.5555555555555571</v>
       </c>
     </row>
-    <row r="48" spans="2:205" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:205" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -31662,7 +31947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>0</v>
       </c>
@@ -31755,7 +32040,7 @@
         <v>-5.5555555555555571</v>
       </c>
     </row>
-    <row r="50" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B50">
         <f t="shared" ref="B50:B89" si="168">B49+0.1</f>
         <v>0.1</v>
@@ -31861,7 +32146,7 @@
         <v>-5.2703703703703715</v>
       </c>
     </row>
-    <row r="51" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B51">
         <f t="shared" si="168"/>
         <v>0.2</v>
@@ -31967,7 +32252,7 @@
         <v>-4.9851851851851867</v>
       </c>
     </row>
-    <row r="52" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B52">
         <f t="shared" si="168"/>
         <v>0.30000000000000004</v>
@@ -32073,7 +32358,7 @@
         <v>-4.7000000000000011</v>
       </c>
     </row>
-    <row r="53" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B53">
         <f t="shared" si="168"/>
         <v>0.4</v>
@@ -32179,7 +32464,7 @@
         <v>-4.4148148148148163</v>
       </c>
     </row>
-    <row r="54" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B54">
         <f t="shared" si="168"/>
         <v>0.5</v>
@@ -32285,7 +32570,7 @@
         <v>-4.1296296296296306</v>
       </c>
     </row>
-    <row r="55" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B55">
         <f t="shared" si="168"/>
         <v>0.6</v>
@@ -32391,7 +32676,7 @@
         <v>-3.8444444444444459</v>
       </c>
     </row>
-    <row r="56" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B56">
         <f t="shared" si="168"/>
         <v>0.7</v>
@@ -32497,7 +32782,7 @@
         <v>-3.5592592592592611</v>
       </c>
     </row>
-    <row r="57" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B57">
         <f t="shared" si="168"/>
         <v>0.79999999999999993</v>
@@ -32603,7 +32888,7 @@
         <v>-3.2740740740740755</v>
       </c>
     </row>
-    <row r="58" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B58">
         <f t="shared" si="168"/>
         <v>0.89999999999999991</v>
@@ -32709,7 +32994,7 @@
         <v>-2.9888888888888903</v>
       </c>
     </row>
-    <row r="59" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B59">
         <f t="shared" si="168"/>
         <v>0.99999999999999989</v>
@@ -32893,7 +33178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B60">
         <f t="shared" si="168"/>
         <v>1.0999999999999999</v>
@@ -32999,7 +33284,7 @@
         <v>-2.4185185185185203</v>
       </c>
     </row>
-    <row r="61" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B61">
         <f t="shared" si="168"/>
         <v>1.2</v>
@@ -33105,7 +33390,7 @@
         <v>-2.1333333333333346</v>
       </c>
     </row>
-    <row r="62" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B62">
         <f t="shared" si="168"/>
         <v>1.3</v>
@@ -33211,7 +33496,7 @@
         <v>-1.848148148148149</v>
       </c>
     </row>
-    <row r="63" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B63">
         <f t="shared" si="168"/>
         <v>1.4000000000000001</v>
@@ -33317,7 +33602,7 @@
         <v>-1.5629629629629638</v>
       </c>
     </row>
-    <row r="64" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B64">
         <f t="shared" si="168"/>
         <v>1.5000000000000002</v>
@@ -33423,7 +33708,7 @@
         <v>-1.2777777777777777</v>
       </c>
     </row>
-    <row r="65" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B65">
         <f t="shared" si="168"/>
         <v>1.6000000000000003</v>
@@ -33529,7 +33814,7 @@
         <v>-0.99259259259259291</v>
       </c>
     </row>
-    <row r="66" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B66">
         <f t="shared" si="168"/>
         <v>1.7000000000000004</v>
@@ -33635,7 +33920,7 @@
         <v>-0.70740740740740726</v>
       </c>
     </row>
-    <row r="67" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B67">
         <f t="shared" si="168"/>
         <v>1.8000000000000005</v>
@@ -33741,7 +34026,7 @@
         <v>-0.42222222222222161</v>
       </c>
     </row>
-    <row r="68" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B68">
         <f t="shared" si="168"/>
         <v>1.9000000000000006</v>
@@ -33847,7 +34132,7 @@
         <v>-0.13703703703703596</v>
       </c>
     </row>
-    <row r="69" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B69">
         <f t="shared" si="168"/>
         <v>2.0000000000000004</v>
@@ -34031,7 +34316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B70">
         <f t="shared" si="168"/>
         <v>2.1000000000000005</v>
@@ -34137,7 +34422,7 @@
         <v>0.43333333333333446</v>
       </c>
     </row>
-    <row r="71" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B71">
         <f t="shared" si="168"/>
         <v>2.2000000000000006</v>
@@ -34243,7 +34528,7 @@
         <v>0.71851851851852011</v>
       </c>
     </row>
-    <row r="72" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B72">
         <f t="shared" si="168"/>
         <v>2.3000000000000007</v>
@@ -34349,7 +34634,7 @@
         <v>1.0037037037037049</v>
       </c>
     </row>
-    <row r="73" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B73">
         <f t="shared" si="168"/>
         <v>2.4000000000000008</v>
@@ -34455,7 +34740,7 @@
         <v>1.2888888888888914</v>
       </c>
     </row>
-    <row r="74" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B74">
         <f t="shared" si="168"/>
         <v>2.5000000000000009</v>
@@ -34561,7 +34846,7 @@
         <v>1.5740740740740762</v>
       </c>
     </row>
-    <row r="75" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B75">
         <f t="shared" si="168"/>
         <v>2.600000000000001</v>
@@ -34667,7 +34952,7 @@
         <v>1.8592592592592609</v>
       </c>
     </row>
-    <row r="76" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B76">
         <f t="shared" si="168"/>
         <v>2.7000000000000011</v>
@@ -34773,7 +35058,7 @@
         <v>2.1444444444444475</v>
       </c>
     </row>
-    <row r="77" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B77">
         <f t="shared" si="168"/>
         <v>2.8000000000000012</v>
@@ -34879,7 +35164,7 @@
         <v>2.4296296296296331</v>
       </c>
     </row>
-    <row r="78" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B78">
         <f t="shared" si="168"/>
         <v>2.9000000000000012</v>
@@ -34985,7 +35270,7 @@
         <v>2.7148148148148188</v>
       </c>
     </row>
-    <row r="79" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B79">
         <f t="shared" si="168"/>
         <v>3.0000000000000013</v>
@@ -35169,7 +35454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:65" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:65" x14ac:dyDescent="0.3">
       <c r="B80">
         <f t="shared" si="168"/>
         <v>3.1000000000000014</v>
@@ -35275,7 +35560,7 @@
         <v>3.2851851851851901</v>
       </c>
     </row>
-    <row r="81" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:63" x14ac:dyDescent="0.3">
       <c r="B81">
         <f t="shared" si="168"/>
         <v>3.2000000000000015</v>
@@ -35381,7 +35666,7 @@
         <v>3.5703703703703749</v>
       </c>
     </row>
-    <row r="82" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:63" x14ac:dyDescent="0.3">
       <c r="B82">
         <f t="shared" si="168"/>
         <v>3.3000000000000016</v>
@@ -35487,7 +35772,7 @@
         <v>3.8555555555555596</v>
       </c>
     </row>
-    <row r="83" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:63" x14ac:dyDescent="0.3">
       <c r="B83">
         <f t="shared" si="168"/>
         <v>3.4000000000000017</v>
@@ -35593,7 +35878,7 @@
         <v>4.1407407407407444</v>
       </c>
     </row>
-    <row r="84" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:63" x14ac:dyDescent="0.3">
       <c r="B84">
         <f t="shared" si="168"/>
         <v>3.5000000000000018</v>
@@ -35699,7 +35984,7 @@
         <v>4.4259259259259309</v>
       </c>
     </row>
-    <row r="85" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:63" x14ac:dyDescent="0.3">
       <c r="B85">
         <f t="shared" si="168"/>
         <v>3.6000000000000019</v>
@@ -35805,7 +36090,7 @@
         <v>4.7111111111111175</v>
       </c>
     </row>
-    <row r="86" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:63" x14ac:dyDescent="0.3">
       <c r="B86">
         <f t="shared" si="168"/>
         <v>3.700000000000002</v>
@@ -35911,7 +36196,7 @@
         <v>4.9962962962963022</v>
       </c>
     </row>
-    <row r="87" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:63" x14ac:dyDescent="0.3">
       <c r="B87">
         <f t="shared" si="168"/>
         <v>3.800000000000002</v>
@@ -36017,7 +36302,7 @@
         <v>5.281481481481487</v>
       </c>
     </row>
-    <row r="88" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:63" x14ac:dyDescent="0.3">
       <c r="B88">
         <f t="shared" si="168"/>
         <v>3.9000000000000021</v>
@@ -36123,7 +36408,7 @@
         <v>5.5666666666666735</v>
       </c>
     </row>
-    <row r="89" spans="2:63" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:63" x14ac:dyDescent="0.3">
       <c r="B89">
         <f t="shared" si="168"/>
         <v>4.0000000000000018</v>
@@ -36231,234 +36516,41 @@
     </row>
   </sheetData>
   <mergeCells count="290">
-    <mergeCell ref="GT41:GW41"/>
-    <mergeCell ref="GT44:GW44"/>
-    <mergeCell ref="GT20:GW20"/>
-    <mergeCell ref="GT29:GW29"/>
-    <mergeCell ref="GT32:GW32"/>
-    <mergeCell ref="GT35:GW35"/>
-    <mergeCell ref="GT38:GW38"/>
-    <mergeCell ref="GJ41:GM41"/>
-    <mergeCell ref="GJ44:GM44"/>
-    <mergeCell ref="GO20:GR20"/>
-    <mergeCell ref="GO29:GR29"/>
-    <mergeCell ref="GO32:GR32"/>
-    <mergeCell ref="GO35:GR35"/>
-    <mergeCell ref="GO38:GR38"/>
-    <mergeCell ref="GO41:GR41"/>
-    <mergeCell ref="GO44:GR44"/>
-    <mergeCell ref="GJ20:GM20"/>
-    <mergeCell ref="GJ29:GM29"/>
-    <mergeCell ref="GJ32:GM32"/>
-    <mergeCell ref="GJ35:GM35"/>
-    <mergeCell ref="GJ38:GM38"/>
-    <mergeCell ref="FZ41:GC41"/>
-    <mergeCell ref="FZ44:GC44"/>
-    <mergeCell ref="GE20:GH20"/>
-    <mergeCell ref="GE29:GH29"/>
-    <mergeCell ref="GE32:GH32"/>
-    <mergeCell ref="GE35:GH35"/>
-    <mergeCell ref="GE38:GH38"/>
-    <mergeCell ref="GE41:GH41"/>
-    <mergeCell ref="GE44:GH44"/>
-    <mergeCell ref="FZ20:GC20"/>
-    <mergeCell ref="FZ29:GC29"/>
-    <mergeCell ref="FZ32:GC32"/>
-    <mergeCell ref="FZ35:GC35"/>
-    <mergeCell ref="FZ38:GC38"/>
-    <mergeCell ref="FP41:FS41"/>
-    <mergeCell ref="FP44:FS44"/>
-    <mergeCell ref="FU20:FX20"/>
-    <mergeCell ref="FU29:FX29"/>
-    <mergeCell ref="FU32:FX32"/>
-    <mergeCell ref="FU35:FX35"/>
-    <mergeCell ref="FU38:FX38"/>
-    <mergeCell ref="FU41:FX41"/>
-    <mergeCell ref="FU44:FX44"/>
-    <mergeCell ref="FP20:FS20"/>
-    <mergeCell ref="FP29:FS29"/>
-    <mergeCell ref="FP32:FS32"/>
-    <mergeCell ref="FP35:FS35"/>
-    <mergeCell ref="FP38:FS38"/>
-    <mergeCell ref="FF41:FI41"/>
-    <mergeCell ref="FF44:FI44"/>
-    <mergeCell ref="FK20:FN20"/>
-    <mergeCell ref="FK29:FN29"/>
-    <mergeCell ref="FK32:FN32"/>
-    <mergeCell ref="FK35:FN35"/>
-    <mergeCell ref="FK38:FN38"/>
-    <mergeCell ref="FK41:FN41"/>
-    <mergeCell ref="FK44:FN44"/>
-    <mergeCell ref="FF20:FI20"/>
-    <mergeCell ref="FF29:FI29"/>
-    <mergeCell ref="FF32:FI32"/>
-    <mergeCell ref="FF35:FI35"/>
-    <mergeCell ref="FF38:FI38"/>
-    <mergeCell ref="EV41:EY41"/>
-    <mergeCell ref="EV44:EY44"/>
-    <mergeCell ref="FA20:FD20"/>
-    <mergeCell ref="FA29:FD29"/>
-    <mergeCell ref="FA32:FD32"/>
-    <mergeCell ref="FA35:FD35"/>
-    <mergeCell ref="FA38:FD38"/>
-    <mergeCell ref="FA41:FD41"/>
-    <mergeCell ref="FA44:FD44"/>
-    <mergeCell ref="EV20:EY20"/>
-    <mergeCell ref="EV29:EY29"/>
-    <mergeCell ref="EV32:EY32"/>
-    <mergeCell ref="EV35:EY35"/>
-    <mergeCell ref="EV38:EY38"/>
-    <mergeCell ref="EL41:EO41"/>
-    <mergeCell ref="EL44:EO44"/>
-    <mergeCell ref="EQ20:ET20"/>
-    <mergeCell ref="EQ29:ET29"/>
-    <mergeCell ref="EQ32:ET32"/>
-    <mergeCell ref="EQ35:ET35"/>
-    <mergeCell ref="EQ38:ET38"/>
-    <mergeCell ref="EQ41:ET41"/>
-    <mergeCell ref="EQ44:ET44"/>
-    <mergeCell ref="EL20:EO20"/>
-    <mergeCell ref="EL29:EO29"/>
-    <mergeCell ref="EL32:EO32"/>
-    <mergeCell ref="EL35:EO35"/>
-    <mergeCell ref="EL38:EO38"/>
-    <mergeCell ref="EB41:EE41"/>
-    <mergeCell ref="EB44:EE44"/>
-    <mergeCell ref="EG20:EJ20"/>
-    <mergeCell ref="EG29:EJ29"/>
-    <mergeCell ref="EG32:EJ32"/>
-    <mergeCell ref="EG35:EJ35"/>
-    <mergeCell ref="EG38:EJ38"/>
-    <mergeCell ref="EG41:EJ41"/>
-    <mergeCell ref="EG44:EJ44"/>
-    <mergeCell ref="EB20:EE20"/>
-    <mergeCell ref="EB29:EE29"/>
-    <mergeCell ref="EB32:EE32"/>
-    <mergeCell ref="EB35:EE35"/>
-    <mergeCell ref="EB38:EE38"/>
-    <mergeCell ref="DR41:DU41"/>
-    <mergeCell ref="DR44:DU44"/>
-    <mergeCell ref="DW20:DZ20"/>
-    <mergeCell ref="DW29:DZ29"/>
-    <mergeCell ref="DW32:DZ32"/>
-    <mergeCell ref="DW35:DZ35"/>
-    <mergeCell ref="DW38:DZ38"/>
-    <mergeCell ref="DW41:DZ41"/>
-    <mergeCell ref="DW44:DZ44"/>
-    <mergeCell ref="DR20:DU20"/>
-    <mergeCell ref="DR29:DU29"/>
-    <mergeCell ref="DR32:DU32"/>
-    <mergeCell ref="DR35:DU35"/>
-    <mergeCell ref="DR38:DU38"/>
-    <mergeCell ref="DH41:DK41"/>
-    <mergeCell ref="DH44:DK44"/>
-    <mergeCell ref="DM20:DP20"/>
-    <mergeCell ref="DM29:DP29"/>
-    <mergeCell ref="DM32:DP32"/>
-    <mergeCell ref="DM35:DP35"/>
-    <mergeCell ref="DM38:DP38"/>
-    <mergeCell ref="DM41:DP41"/>
-    <mergeCell ref="DM44:DP44"/>
-    <mergeCell ref="DH20:DK20"/>
-    <mergeCell ref="DH29:DK29"/>
-    <mergeCell ref="DH32:DK32"/>
-    <mergeCell ref="DH35:DK35"/>
-    <mergeCell ref="DH38:DK38"/>
-    <mergeCell ref="CX41:DA41"/>
-    <mergeCell ref="CX44:DA44"/>
-    <mergeCell ref="DC20:DF20"/>
-    <mergeCell ref="DC29:DF29"/>
-    <mergeCell ref="DC32:DF32"/>
-    <mergeCell ref="DC35:DF35"/>
-    <mergeCell ref="DC38:DF38"/>
-    <mergeCell ref="DC41:DF41"/>
-    <mergeCell ref="DC44:DF44"/>
-    <mergeCell ref="CX20:DA20"/>
-    <mergeCell ref="CX29:DA29"/>
-    <mergeCell ref="CX32:DA32"/>
-    <mergeCell ref="CX35:DA35"/>
-    <mergeCell ref="CX38:DA38"/>
-    <mergeCell ref="CN41:CQ41"/>
-    <mergeCell ref="CN44:CQ44"/>
-    <mergeCell ref="CS20:CV20"/>
-    <mergeCell ref="CS29:CV29"/>
-    <mergeCell ref="CS32:CV32"/>
-    <mergeCell ref="CS35:CV35"/>
-    <mergeCell ref="CS38:CV38"/>
-    <mergeCell ref="CS41:CV41"/>
-    <mergeCell ref="CS44:CV44"/>
-    <mergeCell ref="CN20:CQ20"/>
-    <mergeCell ref="CN29:CQ29"/>
-    <mergeCell ref="CN32:CQ32"/>
-    <mergeCell ref="CN35:CQ35"/>
-    <mergeCell ref="CN38:CQ38"/>
-    <mergeCell ref="CD41:CG41"/>
-    <mergeCell ref="CD44:CG44"/>
-    <mergeCell ref="CI20:CL20"/>
-    <mergeCell ref="CI29:CL29"/>
-    <mergeCell ref="CI32:CL32"/>
-    <mergeCell ref="CI35:CL35"/>
-    <mergeCell ref="CI38:CL38"/>
-    <mergeCell ref="CI41:CL41"/>
-    <mergeCell ref="CI44:CL44"/>
-    <mergeCell ref="CD20:CG20"/>
-    <mergeCell ref="CD29:CG29"/>
-    <mergeCell ref="CD32:CG32"/>
-    <mergeCell ref="CD35:CG35"/>
-    <mergeCell ref="CD38:CG38"/>
-    <mergeCell ref="BT41:BW41"/>
-    <mergeCell ref="BT44:BW44"/>
-    <mergeCell ref="BY20:CB20"/>
-    <mergeCell ref="BY29:CB29"/>
-    <mergeCell ref="BY32:CB32"/>
-    <mergeCell ref="BY35:CB35"/>
-    <mergeCell ref="BY38:CB38"/>
-    <mergeCell ref="BY41:CB41"/>
-    <mergeCell ref="BY44:CB44"/>
-    <mergeCell ref="BT20:BW20"/>
-    <mergeCell ref="BT29:BW29"/>
-    <mergeCell ref="BT32:BW32"/>
-    <mergeCell ref="BT35:BW35"/>
-    <mergeCell ref="BT38:BW38"/>
-    <mergeCell ref="BJ44:BM44"/>
-    <mergeCell ref="BO20:BR20"/>
-    <mergeCell ref="BO29:BR29"/>
-    <mergeCell ref="BO32:BR32"/>
-    <mergeCell ref="BO35:BR35"/>
-    <mergeCell ref="BO38:BR38"/>
-    <mergeCell ref="BO41:BR41"/>
-    <mergeCell ref="BO44:BR44"/>
-    <mergeCell ref="BJ29:BM29"/>
-    <mergeCell ref="BJ32:BM32"/>
-    <mergeCell ref="BJ35:BM35"/>
-    <mergeCell ref="BJ38:BM38"/>
-    <mergeCell ref="BJ41:BM41"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="AA20:AD20"/>
-    <mergeCell ref="BJ20:BM20"/>
-    <mergeCell ref="AK20:AN20"/>
-    <mergeCell ref="AP20:AS20"/>
-    <mergeCell ref="AU20:AX20"/>
-    <mergeCell ref="AZ20:BC20"/>
-    <mergeCell ref="BE20:BH20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="AF44:AI44"/>
-    <mergeCell ref="AK44:AN44"/>
-    <mergeCell ref="AP44:AS44"/>
-    <mergeCell ref="AU44:AX44"/>
-    <mergeCell ref="AP29:AS29"/>
-    <mergeCell ref="AP32:AS32"/>
-    <mergeCell ref="AP35:AS35"/>
-    <mergeCell ref="AP38:AS38"/>
-    <mergeCell ref="AP41:AS41"/>
-    <mergeCell ref="AU29:AX29"/>
-    <mergeCell ref="AU32:AX32"/>
-    <mergeCell ref="AU35:AX35"/>
-    <mergeCell ref="AU38:AX38"/>
-    <mergeCell ref="AU41:AX41"/>
-    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="Q38:T38"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="V38:Y38"/>
+    <mergeCell ref="V41:Y41"/>
+    <mergeCell ref="AA29:AD29"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="AA35:AD35"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="AA41:AD41"/>
     <mergeCell ref="AZ44:BC44"/>
     <mergeCell ref="BE44:BH44"/>
     <mergeCell ref="B44:E44"/>
@@ -36483,44 +36575,237 @@
     <mergeCell ref="AF41:AI41"/>
     <mergeCell ref="AK29:AN29"/>
     <mergeCell ref="AK32:AN32"/>
+    <mergeCell ref="AF44:AI44"/>
+    <mergeCell ref="AK44:AN44"/>
+    <mergeCell ref="AP44:AS44"/>
+    <mergeCell ref="AU44:AX44"/>
+    <mergeCell ref="AP29:AS29"/>
+    <mergeCell ref="AP32:AS32"/>
+    <mergeCell ref="AP35:AS35"/>
+    <mergeCell ref="AP38:AS38"/>
+    <mergeCell ref="AP41:AS41"/>
+    <mergeCell ref="AU29:AX29"/>
+    <mergeCell ref="AU32:AX32"/>
+    <mergeCell ref="AU35:AX35"/>
+    <mergeCell ref="AU38:AX38"/>
+    <mergeCell ref="AU41:AX41"/>
+    <mergeCell ref="AF29:AI29"/>
     <mergeCell ref="AK35:AN35"/>
     <mergeCell ref="AK38:AN38"/>
     <mergeCell ref="AK41:AN41"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="V32:Y32"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="V38:Y38"/>
-    <mergeCell ref="V41:Y41"/>
-    <mergeCell ref="AA29:AD29"/>
-    <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="AA35:AD35"/>
-    <mergeCell ref="AA38:AD38"/>
-    <mergeCell ref="AA41:AD41"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="Q35:T35"/>
-    <mergeCell ref="Q38:T38"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="AA20:AD20"/>
+    <mergeCell ref="BJ20:BM20"/>
+    <mergeCell ref="AK20:AN20"/>
+    <mergeCell ref="AP20:AS20"/>
+    <mergeCell ref="AU20:AX20"/>
+    <mergeCell ref="AZ20:BC20"/>
+    <mergeCell ref="BE20:BH20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="BJ44:BM44"/>
+    <mergeCell ref="BO20:BR20"/>
+    <mergeCell ref="BO29:BR29"/>
+    <mergeCell ref="BO32:BR32"/>
+    <mergeCell ref="BO35:BR35"/>
+    <mergeCell ref="BO38:BR38"/>
+    <mergeCell ref="BO41:BR41"/>
+    <mergeCell ref="BO44:BR44"/>
+    <mergeCell ref="BJ29:BM29"/>
+    <mergeCell ref="BJ32:BM32"/>
+    <mergeCell ref="BJ35:BM35"/>
+    <mergeCell ref="BJ38:BM38"/>
+    <mergeCell ref="BJ41:BM41"/>
+    <mergeCell ref="BT41:BW41"/>
+    <mergeCell ref="BT44:BW44"/>
+    <mergeCell ref="BY20:CB20"/>
+    <mergeCell ref="BY29:CB29"/>
+    <mergeCell ref="BY32:CB32"/>
+    <mergeCell ref="BY35:CB35"/>
+    <mergeCell ref="BY38:CB38"/>
+    <mergeCell ref="BY41:CB41"/>
+    <mergeCell ref="BY44:CB44"/>
+    <mergeCell ref="BT20:BW20"/>
+    <mergeCell ref="BT29:BW29"/>
+    <mergeCell ref="BT32:BW32"/>
+    <mergeCell ref="BT35:BW35"/>
+    <mergeCell ref="BT38:BW38"/>
+    <mergeCell ref="CD41:CG41"/>
+    <mergeCell ref="CD44:CG44"/>
+    <mergeCell ref="CI20:CL20"/>
+    <mergeCell ref="CI29:CL29"/>
+    <mergeCell ref="CI32:CL32"/>
+    <mergeCell ref="CI35:CL35"/>
+    <mergeCell ref="CI38:CL38"/>
+    <mergeCell ref="CI41:CL41"/>
+    <mergeCell ref="CI44:CL44"/>
+    <mergeCell ref="CD20:CG20"/>
+    <mergeCell ref="CD29:CG29"/>
+    <mergeCell ref="CD32:CG32"/>
+    <mergeCell ref="CD35:CG35"/>
+    <mergeCell ref="CD38:CG38"/>
+    <mergeCell ref="CN41:CQ41"/>
+    <mergeCell ref="CN44:CQ44"/>
+    <mergeCell ref="CS20:CV20"/>
+    <mergeCell ref="CS29:CV29"/>
+    <mergeCell ref="CS32:CV32"/>
+    <mergeCell ref="CS35:CV35"/>
+    <mergeCell ref="CS38:CV38"/>
+    <mergeCell ref="CS41:CV41"/>
+    <mergeCell ref="CS44:CV44"/>
+    <mergeCell ref="CN20:CQ20"/>
+    <mergeCell ref="CN29:CQ29"/>
+    <mergeCell ref="CN32:CQ32"/>
+    <mergeCell ref="CN35:CQ35"/>
+    <mergeCell ref="CN38:CQ38"/>
+    <mergeCell ref="CX41:DA41"/>
+    <mergeCell ref="CX44:DA44"/>
+    <mergeCell ref="DC20:DF20"/>
+    <mergeCell ref="DC29:DF29"/>
+    <mergeCell ref="DC32:DF32"/>
+    <mergeCell ref="DC35:DF35"/>
+    <mergeCell ref="DC38:DF38"/>
+    <mergeCell ref="DC41:DF41"/>
+    <mergeCell ref="DC44:DF44"/>
+    <mergeCell ref="CX20:DA20"/>
+    <mergeCell ref="CX29:DA29"/>
+    <mergeCell ref="CX32:DA32"/>
+    <mergeCell ref="CX35:DA35"/>
+    <mergeCell ref="CX38:DA38"/>
+    <mergeCell ref="DH41:DK41"/>
+    <mergeCell ref="DH44:DK44"/>
+    <mergeCell ref="DM20:DP20"/>
+    <mergeCell ref="DM29:DP29"/>
+    <mergeCell ref="DM32:DP32"/>
+    <mergeCell ref="DM35:DP35"/>
+    <mergeCell ref="DM38:DP38"/>
+    <mergeCell ref="DM41:DP41"/>
+    <mergeCell ref="DM44:DP44"/>
+    <mergeCell ref="DH20:DK20"/>
+    <mergeCell ref="DH29:DK29"/>
+    <mergeCell ref="DH32:DK32"/>
+    <mergeCell ref="DH35:DK35"/>
+    <mergeCell ref="DH38:DK38"/>
+    <mergeCell ref="DR41:DU41"/>
+    <mergeCell ref="DR44:DU44"/>
+    <mergeCell ref="DW20:DZ20"/>
+    <mergeCell ref="DW29:DZ29"/>
+    <mergeCell ref="DW32:DZ32"/>
+    <mergeCell ref="DW35:DZ35"/>
+    <mergeCell ref="DW38:DZ38"/>
+    <mergeCell ref="DW41:DZ41"/>
+    <mergeCell ref="DW44:DZ44"/>
+    <mergeCell ref="DR20:DU20"/>
+    <mergeCell ref="DR29:DU29"/>
+    <mergeCell ref="DR32:DU32"/>
+    <mergeCell ref="DR35:DU35"/>
+    <mergeCell ref="DR38:DU38"/>
+    <mergeCell ref="EB41:EE41"/>
+    <mergeCell ref="EB44:EE44"/>
+    <mergeCell ref="EG20:EJ20"/>
+    <mergeCell ref="EG29:EJ29"/>
+    <mergeCell ref="EG32:EJ32"/>
+    <mergeCell ref="EG35:EJ35"/>
+    <mergeCell ref="EG38:EJ38"/>
+    <mergeCell ref="EG41:EJ41"/>
+    <mergeCell ref="EG44:EJ44"/>
+    <mergeCell ref="EB20:EE20"/>
+    <mergeCell ref="EB29:EE29"/>
+    <mergeCell ref="EB32:EE32"/>
+    <mergeCell ref="EB35:EE35"/>
+    <mergeCell ref="EB38:EE38"/>
+    <mergeCell ref="EL41:EO41"/>
+    <mergeCell ref="EL44:EO44"/>
+    <mergeCell ref="EQ20:ET20"/>
+    <mergeCell ref="EQ29:ET29"/>
+    <mergeCell ref="EQ32:ET32"/>
+    <mergeCell ref="EQ35:ET35"/>
+    <mergeCell ref="EQ38:ET38"/>
+    <mergeCell ref="EQ41:ET41"/>
+    <mergeCell ref="EQ44:ET44"/>
+    <mergeCell ref="EL20:EO20"/>
+    <mergeCell ref="EL29:EO29"/>
+    <mergeCell ref="EL32:EO32"/>
+    <mergeCell ref="EL35:EO35"/>
+    <mergeCell ref="EL38:EO38"/>
+    <mergeCell ref="EV41:EY41"/>
+    <mergeCell ref="EV44:EY44"/>
+    <mergeCell ref="FA20:FD20"/>
+    <mergeCell ref="FA29:FD29"/>
+    <mergeCell ref="FA32:FD32"/>
+    <mergeCell ref="FA35:FD35"/>
+    <mergeCell ref="FA38:FD38"/>
+    <mergeCell ref="FA41:FD41"/>
+    <mergeCell ref="FA44:FD44"/>
+    <mergeCell ref="EV20:EY20"/>
+    <mergeCell ref="EV29:EY29"/>
+    <mergeCell ref="EV32:EY32"/>
+    <mergeCell ref="EV35:EY35"/>
+    <mergeCell ref="EV38:EY38"/>
+    <mergeCell ref="FF41:FI41"/>
+    <mergeCell ref="FF44:FI44"/>
+    <mergeCell ref="FK20:FN20"/>
+    <mergeCell ref="FK29:FN29"/>
+    <mergeCell ref="FK32:FN32"/>
+    <mergeCell ref="FK35:FN35"/>
+    <mergeCell ref="FK38:FN38"/>
+    <mergeCell ref="FK41:FN41"/>
+    <mergeCell ref="FK44:FN44"/>
+    <mergeCell ref="FF20:FI20"/>
+    <mergeCell ref="FF29:FI29"/>
+    <mergeCell ref="FF32:FI32"/>
+    <mergeCell ref="FF35:FI35"/>
+    <mergeCell ref="FF38:FI38"/>
+    <mergeCell ref="FP41:FS41"/>
+    <mergeCell ref="FP44:FS44"/>
+    <mergeCell ref="FU20:FX20"/>
+    <mergeCell ref="FU29:FX29"/>
+    <mergeCell ref="FU32:FX32"/>
+    <mergeCell ref="FU35:FX35"/>
+    <mergeCell ref="FU38:FX38"/>
+    <mergeCell ref="FU41:FX41"/>
+    <mergeCell ref="FU44:FX44"/>
+    <mergeCell ref="FP20:FS20"/>
+    <mergeCell ref="FP29:FS29"/>
+    <mergeCell ref="FP32:FS32"/>
+    <mergeCell ref="FP35:FS35"/>
+    <mergeCell ref="FP38:FS38"/>
+    <mergeCell ref="FZ41:GC41"/>
+    <mergeCell ref="FZ44:GC44"/>
+    <mergeCell ref="GE20:GH20"/>
+    <mergeCell ref="GE29:GH29"/>
+    <mergeCell ref="GE32:GH32"/>
+    <mergeCell ref="GE35:GH35"/>
+    <mergeCell ref="GE38:GH38"/>
+    <mergeCell ref="GE41:GH41"/>
+    <mergeCell ref="GE44:GH44"/>
+    <mergeCell ref="FZ20:GC20"/>
+    <mergeCell ref="FZ29:GC29"/>
+    <mergeCell ref="FZ32:GC32"/>
+    <mergeCell ref="FZ35:GC35"/>
+    <mergeCell ref="FZ38:GC38"/>
+    <mergeCell ref="GT41:GW41"/>
+    <mergeCell ref="GT44:GW44"/>
+    <mergeCell ref="GT20:GW20"/>
+    <mergeCell ref="GT29:GW29"/>
+    <mergeCell ref="GT32:GW32"/>
+    <mergeCell ref="GT35:GW35"/>
+    <mergeCell ref="GT38:GW38"/>
+    <mergeCell ref="GJ41:GM41"/>
+    <mergeCell ref="GJ44:GM44"/>
+    <mergeCell ref="GO20:GR20"/>
+    <mergeCell ref="GO29:GR29"/>
+    <mergeCell ref="GO32:GR32"/>
+    <mergeCell ref="GO35:GR35"/>
+    <mergeCell ref="GO38:GR38"/>
+    <mergeCell ref="GO41:GR41"/>
+    <mergeCell ref="GO44:GR44"/>
+    <mergeCell ref="GJ20:GM20"/>
+    <mergeCell ref="GJ29:GM29"/>
+    <mergeCell ref="GJ32:GM32"/>
+    <mergeCell ref="GJ35:GM35"/>
+    <mergeCell ref="GJ38:GM38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
